--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\practica2\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0041F-4D60-4E8A-8B4F-A7B612A55EF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790182B-2EB1-4CF0-89C5-BEEF8C37ECA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -1427,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,7 +2635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A12D3C-F185-4C2F-BC8E-E636E865D27E}">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790182B-2EB1-4CF0-89C5-BEEF8C37ECA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAF7497-06A2-4B6D-B25C-8A137D5E0AB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
     <sheet name="Electivos" sheetId="2" r:id="rId2"/>
+    <sheet name="Equivalencias" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="291">
   <si>
     <t>CBM1000</t>
   </si>
@@ -470,9 +471,6 @@
 45, 47, 48, 49, 50, 51, 52 </t>
   </si>
   <si>
-    <t>CIG1013</t>
-  </si>
-  <si>
     <t>31, 34</t>
   </si>
   <si>
@@ -882,6 +880,36 @@
   </si>
   <si>
     <t>CIT2102, CIT2200</t>
+  </si>
+  <si>
+    <t>ESTRUCTURAS DE DATOS Y ALGORITMOS</t>
+  </si>
+  <si>
+    <t>DESARROLLO WEB Y MÓVIL</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>Malla 2010</t>
+  </si>
+  <si>
+    <t>Malla 2020</t>
+  </si>
+  <si>
+    <t>TALLER DE REDES Y SERVICIOS</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA Y ORGANIZ DE COMPUTADORES</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>DATA SCIENCE</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +1136,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDDA3EF"/>
+      <color rgb="FFD9FE9C"/>
       <color rgb="FF73B2B5"/>
-      <color rgb="FFD9FE9C"/>
       <color rgb="FF5BFFC8"/>
-      <color rgb="FFDDA3EF"/>
       <color rgb="FFF16B6B"/>
       <color rgb="FF949A4C"/>
       <color rgb="FF8BDBCE"/>
@@ -1427,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,9 +1940,7 @@
       <c r="F23" s="15">
         <v>5</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>133</v>
-      </c>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -1935,9 +1961,7 @@
       <c r="F24" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>127</v>
-      </c>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1958,7 +1982,9 @@
       <c r="F25" s="33">
         <v>18</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="25" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1994,7 +2020,7 @@
         <v>83</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="25">
         <v>5</v>
@@ -2047,7 +2073,7 @@
         <v>21</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J29" s="31"/>
     </row>
@@ -2614,8 +2640,8 @@
       <c r="C55" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="34">
-        <v>0</v>
+      <c r="D55" s="34" t="s">
+        <v>290</v>
       </c>
       <c r="E55" s="30">
         <v>11</v>
@@ -2650,22 +2676,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>150</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2673,10 +2699,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>37</v>
@@ -2691,10 +2717,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>35</v>
@@ -2709,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>22</v>
@@ -2721,7 +2747,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>30</v>
@@ -2747,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>37</v>
@@ -2765,10 +2791,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>30</v>
@@ -2783,13 +2809,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="38" t="s">
         <v>166</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>167</v>
       </c>
       <c r="E9" s="39">
         <v>54</v>
@@ -2801,13 +2827,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="38" t="s">
         <v>169</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>170</v>
       </c>
       <c r="E10" s="39">
         <v>54</v>
@@ -2821,13 +2847,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="D11" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" s="39">
         <v>54</v>
@@ -2839,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="38" t="s">
         <v>174</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>175</v>
       </c>
       <c r="E12" s="39">
         <v>54</v>
@@ -2859,13 +2885,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="38" t="s">
         <v>177</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>178</v>
       </c>
       <c r="E13" s="39">
         <v>54</v>
@@ -2877,13 +2903,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="38" t="s">
         <v>180</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>181</v>
       </c>
       <c r="E14" s="39">
         <v>54</v>
@@ -2895,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>22</v>
@@ -2913,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>37</v>
@@ -2931,10 +2957,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>37</v>
@@ -2949,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>22</v>
@@ -2967,10 +2993,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39">
@@ -2983,13 +3009,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="38" t="s">
         <v>193</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>194</v>
       </c>
       <c r="E20" s="39">
         <v>54</v>
@@ -3001,13 +3027,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="D21" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="39">
         <v>54</v>
@@ -3019,13 +3045,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="38" t="s">
         <v>198</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>199</v>
       </c>
       <c r="E22" s="39">
         <v>54</v>
@@ -3037,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>17</v>
@@ -3055,19 +3081,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="E24" s="39">
+        <v>54</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>204</v>
-      </c>
-      <c r="E24" s="39">
-        <v>54</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3075,13 +3101,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="38" t="s">
         <v>207</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>208</v>
       </c>
       <c r="E25" s="39">
         <v>54</v>
@@ -3093,13 +3119,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="38" t="s">
         <v>210</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>211</v>
       </c>
       <c r="E26" s="39">
         <v>54</v>
@@ -3111,10 +3137,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>37</v>
@@ -3129,13 +3155,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="38" t="s">
         <v>215</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>216</v>
       </c>
       <c r="E28" s="39">
         <v>54</v>
@@ -3147,13 +3173,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="38" t="s">
         <v>218</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>219</v>
       </c>
       <c r="E29" s="39">
         <v>54</v>
@@ -3165,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>30</v>
@@ -3183,10 +3209,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>22</v>
@@ -3201,13 +3227,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="D32" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E32" s="39">
         <v>54</v>
@@ -3219,10 +3245,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>37</v>
@@ -3231,7 +3257,7 @@
         <v>54</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3239,13 +3265,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="38" t="s">
         <v>230</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>231</v>
       </c>
       <c r="E34" s="39">
         <v>54</v>
@@ -3257,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>30</v>
@@ -3275,10 +3301,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>30</v>
@@ -3293,13 +3319,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="38" t="s">
         <v>237</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>238</v>
       </c>
       <c r="E37" s="39">
         <v>54</v>
@@ -3311,13 +3337,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="38" t="s">
         <v>240</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>241</v>
       </c>
       <c r="E38" s="39">
         <v>54</v>
@@ -3329,13 +3355,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="38" t="s">
         <v>243</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>244</v>
       </c>
       <c r="E39" s="39">
         <v>54</v>
@@ -3347,10 +3373,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>36</v>
@@ -3365,13 +3391,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="38" t="s">
         <v>248</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>249</v>
       </c>
       <c r="E41" s="39">
         <v>54</v>
@@ -3383,10 +3409,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>31</v>
@@ -3401,10 +3427,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>37</v>
@@ -3419,10 +3445,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>31</v>
@@ -3437,10 +3463,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>36</v>
@@ -3455,13 +3481,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="D46" s="38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E46" s="39">
         <v>54</v>
@@ -3473,13 +3499,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>261</v>
-      </c>
       <c r="D47" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E47" s="39">
         <v>54</v>
@@ -3491,10 +3517,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>31</v>
@@ -3509,13 +3535,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="38" t="s">
         <v>265</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>266</v>
       </c>
       <c r="E49" s="39">
         <v>54</v>
@@ -3527,13 +3553,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="38" t="s">
         <v>268</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>269</v>
       </c>
       <c r="E50" s="39">
         <v>54</v>
@@ -3545,10 +3571,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>36</v>
@@ -3563,10 +3589,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>22</v>
@@ -3581,10 +3607,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>33</v>
@@ -3599,10 +3625,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>31</v>
@@ -3611,7 +3637,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3619,18 +3645,126 @@
         <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="D55" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="E55" s="39">
+        <v>54</v>
+      </c>
+      <c r="F55" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218295B3-95C6-4056-8916-38091AF1344F}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E55" s="39">
-        <v>54</v>
-      </c>
-      <c r="F55" s="40"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAF7497-06A2-4B6D-B25C-8A137D5E0AB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB337D42-C32B-4874-8C4D-B8D4565C6BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="4545" yWindow="1290" windowWidth="18000" windowHeight="9810" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
   </si>
   <si>
-    <t>GESTIÓN ORGANIZACIÓNAL</t>
-  </si>
-  <si>
     <t>EVALUACIÓN DE PROYECTOS TIC</t>
   </si>
   <si>
@@ -910,6 +907,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>GESTIÓN ORGANIZACIONAL</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1129,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1157,7 +1157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1455,11 +1455,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1487,10 +1487,10 @@
         <v>52</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>69</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>76</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="21">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="12">
         <v>38</v>
@@ -1651,7 +1651,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
@@ -1693,7 +1693,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="22">
         <v>2</v>
@@ -1720,7 +1720,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -1756,13 +1756,13 @@
         <v>67</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="23"/>
     </row>
@@ -1786,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1820,7 +1820,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>60</v>
@@ -1829,7 +1829,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="24"/>
     </row>
@@ -1844,16 +1844,16 @@
         <v>75</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="24">
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="24"/>
     </row>
@@ -1897,7 +1897,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="24">
         <v>4</v>
@@ -1929,7 +1929,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="15">
         <v>27</v>
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" s="25"/>
     </row>
@@ -1971,7 +1971,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>62</v>
@@ -1983,7 +1983,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2003,10 +2003,10 @@
         <v>5</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
         <v>83</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="25">
         <v>5</v>
@@ -2029,7 +2029,7 @@
         <v>19</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2043,7 +2043,7 @@
         <v>65</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="25">
         <v>5</v>
@@ -2061,10 +2061,10 @@
         <v>23</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="25">
         <v>5</v>
@@ -2073,7 +2073,7 @@
         <v>21</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J29" s="31"/>
     </row>
@@ -2085,10 +2085,10 @@
         <v>24</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
@@ -2097,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2111,16 +2111,16 @@
         <v>95</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2140,10 +2140,10 @@
         <v>6</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2163,10 +2163,10 @@
         <v>6</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2189,7 +2189,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2233,7 +2233,7 @@
         <v>61</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>30</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2267,10 +2267,10 @@
         <v>32</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" s="27">
         <v>7</v>
@@ -2291,7 +2291,7 @@
         <v>91</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="27">
         <v>7</v>
@@ -2300,7 +2300,7 @@
         <v>32</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2311,10 +2311,10 @@
         <v>34</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E40" s="28">
         <v>8</v>
@@ -2323,7 +2323,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>85</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="28">
         <v>8</v>
@@ -2346,7 +2346,7 @@
         <v>34</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>92</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E42" s="28">
         <v>8</v>
@@ -2369,7 +2369,7 @@
         <v>31</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2389,10 +2389,10 @@
         <v>8</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
         <v>65</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" s="28">
         <v>8</v>
@@ -2427,7 +2427,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E45" s="29">
         <v>9</v>
@@ -2448,7 +2448,7 @@
         <v>38</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="29">
         <v>9</v>
@@ -2469,7 +2469,7 @@
         <v>38</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" s="29">
         <v>9</v>
@@ -2487,7 +2487,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" s="20">
         <v>51</v>
@@ -2496,10 +2496,10 @@
         <v>9</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
         <v>38</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E49" s="29">
         <v>9</v>
@@ -2534,7 +2534,7 @@
         <v>38</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E50" s="30">
         <v>10</v>
@@ -2555,7 +2555,7 @@
         <v>38</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E51" s="30">
         <v>10</v>
@@ -2576,7 +2576,7 @@
         <v>38</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E52" s="30">
         <v>10</v>
@@ -2594,10 +2594,10 @@
         <v>47</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53" s="30">
         <v>10</v>
@@ -2606,7 +2606,7 @@
         <v>46</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>38</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E54" s="30">
         <v>10</v>
@@ -2635,19 +2635,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E55" s="30">
         <v>11</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G55" s="30"/>
     </row>
@@ -2665,7 +2665,7 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" customWidth="1"/>
@@ -2676,22 +2676,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>149</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,10 +2699,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>37</v>
@@ -2717,10 +2717,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>35</v>
@@ -2735,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>22</v>
@@ -2747,7 +2747,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>30</v>
@@ -2773,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>37</v>
@@ -2791,10 +2791,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>30</v>
@@ -2809,13 +2809,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="38" t="s">
         <v>165</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>166</v>
       </c>
       <c r="E9" s="39">
         <v>54</v>
@@ -2827,19 +2827,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>169</v>
-      </c>
       <c r="E10" s="39">
         <v>54</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,13 +2847,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="D11" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="39">
         <v>54</v>
@@ -2865,19 +2865,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>174</v>
-      </c>
       <c r="E12" s="39">
         <v>54</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2885,13 +2885,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="38" t="s">
         <v>176</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>177</v>
       </c>
       <c r="E13" s="39">
         <v>54</v>
@@ -2903,13 +2903,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="38" t="s">
         <v>179</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>180</v>
       </c>
       <c r="E14" s="39">
         <v>54</v>
@@ -2921,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>22</v>
@@ -2939,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>37</v>
@@ -2957,10 +2957,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>37</v>
@@ -2975,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>22</v>
@@ -2993,10 +2993,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39">
@@ -3009,13 +3009,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="38" t="s">
         <v>192</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>193</v>
       </c>
       <c r="E20" s="39">
         <v>54</v>
@@ -3027,13 +3027,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="D21" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E21" s="39">
         <v>54</v>
@@ -3045,13 +3045,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="38" t="s">
         <v>197</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>198</v>
       </c>
       <c r="E22" s="39">
         <v>54</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>17</v>
@@ -3081,19 +3081,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="E24" s="39">
+        <v>54</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>203</v>
-      </c>
-      <c r="E24" s="39">
-        <v>54</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,13 +3101,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="38" t="s">
         <v>206</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>207</v>
       </c>
       <c r="E25" s="39">
         <v>54</v>
@@ -3119,13 +3119,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="38" t="s">
         <v>209</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>210</v>
       </c>
       <c r="E26" s="39">
         <v>54</v>
@@ -3137,10 +3137,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>37</v>
@@ -3155,13 +3155,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="38" t="s">
         <v>214</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>215</v>
       </c>
       <c r="E28" s="39">
         <v>54</v>
@@ -3173,13 +3173,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="38" t="s">
         <v>217</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>218</v>
       </c>
       <c r="E29" s="39">
         <v>54</v>
@@ -3191,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>30</v>
@@ -3209,10 +3209,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>22</v>
@@ -3227,13 +3227,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="D32" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E32" s="39">
         <v>54</v>
@@ -3245,10 +3245,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>37</v>
@@ -3257,7 +3257,7 @@
         <v>54</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3265,13 +3265,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="38" t="s">
         <v>229</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>230</v>
       </c>
       <c r="E34" s="39">
         <v>54</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>30</v>
@@ -3301,10 +3301,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>30</v>
@@ -3319,13 +3319,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="38" t="s">
         <v>236</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>237</v>
       </c>
       <c r="E37" s="39">
         <v>54</v>
@@ -3337,13 +3337,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="38" t="s">
         <v>239</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>240</v>
       </c>
       <c r="E38" s="39">
         <v>54</v>
@@ -3355,13 +3355,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="38" t="s">
         <v>242</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>243</v>
       </c>
       <c r="E39" s="39">
         <v>54</v>
@@ -3373,10 +3373,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>36</v>
@@ -3391,13 +3391,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="38" t="s">
         <v>247</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>248</v>
       </c>
       <c r="E41" s="39">
         <v>54</v>
@@ -3409,10 +3409,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>31</v>
@@ -3427,10 +3427,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>37</v>
@@ -3445,10 +3445,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>31</v>
@@ -3463,10 +3463,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>36</v>
@@ -3481,13 +3481,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="D46" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E46" s="39">
         <v>54</v>
@@ -3499,13 +3499,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="D47" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E47" s="39">
         <v>54</v>
@@ -3517,10 +3517,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>31</v>
@@ -3535,13 +3535,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="38" t="s">
         <v>264</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>265</v>
       </c>
       <c r="E49" s="39">
         <v>54</v>
@@ -3553,13 +3553,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="38" t="s">
         <v>267</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="E50" s="39">
         <v>54</v>
@@ -3571,10 +3571,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>36</v>
@@ -3589,10 +3589,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>22</v>
@@ -3607,10 +3607,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>33</v>
@@ -3625,10 +3625,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>31</v>
@@ -3637,7 +3637,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,13 +3645,13 @@
         <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="D55" s="38" t="s">
         <v>279</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>280</v>
       </c>
       <c r="E55" s="39">
         <v>54</v>
@@ -3667,11 +3667,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218295B3-95C6-4056-8916-38091AF1344F}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
@@ -3680,10 +3680,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3691,7 +3691,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3699,7 +3699,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3707,15 +3707,15 @@
         <v>82</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3723,7 +3723,7 @@
         <v>95</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3731,7 +3731,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3739,7 +3739,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
         <v>85</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3755,12 +3755,12 @@
         <v>94</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>94</v>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAF7497-06A2-4B6D-B25C-8A137D5E0AB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB082E67-03B3-4975-8920-349EA60F2CF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
   </si>
   <si>
-    <t>GESTIÓN ORGANIZACIÓNAL</t>
-  </si>
-  <si>
     <t>EVALUACIÓN DE PROYECTOS TIC</t>
   </si>
   <si>
@@ -910,6 +907,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>GESTIÓN ORGANIZACIONAL</t>
   </si>
 </sst>
 </file>
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G50"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,10 +1487,10 @@
         <v>52</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>69</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>76</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="21">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="12">
         <v>38</v>
@@ -1651,7 +1651,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
@@ -1693,7 +1693,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="22">
         <v>2</v>
@@ -1720,7 +1720,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -1756,13 +1756,13 @@
         <v>67</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="23"/>
     </row>
@@ -1786,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1820,7 +1820,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>60</v>
@@ -1829,7 +1829,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="24"/>
     </row>
@@ -1844,16 +1844,16 @@
         <v>75</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="24">
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1873,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="24"/>
     </row>
@@ -1897,7 +1897,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="24">
         <v>4</v>
@@ -1929,7 +1929,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="15">
         <v>27</v>
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" s="25"/>
     </row>
@@ -1971,7 +1971,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>62</v>
@@ -1983,7 +1983,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2003,10 +2003,10 @@
         <v>5</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
         <v>83</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="25">
         <v>5</v>
@@ -2029,7 +2029,7 @@
         <v>19</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2043,7 +2043,7 @@
         <v>65</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="25">
         <v>5</v>
@@ -2061,10 +2061,10 @@
         <v>23</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="25">
         <v>5</v>
@@ -2073,7 +2073,7 @@
         <v>21</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J29" s="31"/>
     </row>
@@ -2085,10 +2085,10 @@
         <v>24</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
@@ -2097,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2111,16 +2111,16 @@
         <v>95</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2140,10 +2140,10 @@
         <v>6</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2163,10 +2163,10 @@
         <v>6</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2189,7 +2189,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2233,7 +2233,7 @@
         <v>61</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>30</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2267,10 +2267,10 @@
         <v>32</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" s="27">
         <v>7</v>
@@ -2291,7 +2291,7 @@
         <v>91</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="27">
         <v>7</v>
@@ -2300,7 +2300,7 @@
         <v>32</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2311,10 +2311,10 @@
         <v>34</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E40" s="28">
         <v>8</v>
@@ -2323,7 +2323,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>85</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="28">
         <v>8</v>
@@ -2346,7 +2346,7 @@
         <v>34</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>92</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E42" s="28">
         <v>8</v>
@@ -2369,7 +2369,7 @@
         <v>31</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2389,10 +2389,10 @@
         <v>8</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
         <v>65</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" s="28">
         <v>8</v>
@@ -2427,7 +2427,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E45" s="29">
         <v>9</v>
@@ -2448,7 +2448,7 @@
         <v>38</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="29">
         <v>9</v>
@@ -2469,7 +2469,7 @@
         <v>38</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" s="29">
         <v>9</v>
@@ -2487,7 +2487,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" s="20">
         <v>51</v>
@@ -2496,10 +2496,10 @@
         <v>9</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
         <v>38</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E49" s="29">
         <v>9</v>
@@ -2534,7 +2534,7 @@
         <v>38</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E50" s="30">
         <v>10</v>
@@ -2555,7 +2555,7 @@
         <v>38</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E51" s="30">
         <v>10</v>
@@ -2576,7 +2576,7 @@
         <v>38</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E52" s="30">
         <v>10</v>
@@ -2594,10 +2594,10 @@
         <v>47</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53" s="30">
         <v>10</v>
@@ -2606,7 +2606,7 @@
         <v>46</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>38</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E54" s="30">
         <v>10</v>
@@ -2635,19 +2635,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E55" s="30">
         <v>11</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G55" s="30"/>
     </row>
@@ -2676,22 +2676,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>149</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,10 +2699,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>37</v>
@@ -2717,10 +2717,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>35</v>
@@ -2735,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>22</v>
@@ -2747,7 +2747,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>30</v>
@@ -2773,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>37</v>
@@ -2791,10 +2791,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>30</v>
@@ -2809,13 +2809,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="38" t="s">
         <v>165</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>166</v>
       </c>
       <c r="E9" s="39">
         <v>54</v>
@@ -2827,19 +2827,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>169</v>
-      </c>
       <c r="E10" s="39">
         <v>54</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,13 +2847,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="D11" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="39">
         <v>54</v>
@@ -2865,19 +2865,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>174</v>
-      </c>
       <c r="E12" s="39">
         <v>54</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2885,13 +2885,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="38" t="s">
         <v>176</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>177</v>
       </c>
       <c r="E13" s="39">
         <v>54</v>
@@ -2903,13 +2903,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="38" t="s">
         <v>179</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>180</v>
       </c>
       <c r="E14" s="39">
         <v>54</v>
@@ -2921,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>22</v>
@@ -2939,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>37</v>
@@ -2957,10 +2957,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>37</v>
@@ -2975,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>22</v>
@@ -2993,10 +2993,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39">
@@ -3009,13 +3009,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="38" t="s">
         <v>192</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>193</v>
       </c>
       <c r="E20" s="39">
         <v>54</v>
@@ -3027,13 +3027,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="D21" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E21" s="39">
         <v>54</v>
@@ -3045,13 +3045,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="38" t="s">
         <v>197</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>198</v>
       </c>
       <c r="E22" s="39">
         <v>54</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>17</v>
@@ -3081,19 +3081,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="E24" s="39">
+        <v>54</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>203</v>
-      </c>
-      <c r="E24" s="39">
-        <v>54</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,13 +3101,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="38" t="s">
         <v>206</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>207</v>
       </c>
       <c r="E25" s="39">
         <v>54</v>
@@ -3119,13 +3119,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="38" t="s">
         <v>209</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>210</v>
       </c>
       <c r="E26" s="39">
         <v>54</v>
@@ -3137,10 +3137,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>37</v>
@@ -3155,13 +3155,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="38" t="s">
         <v>214</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>215</v>
       </c>
       <c r="E28" s="39">
         <v>54</v>
@@ -3173,13 +3173,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="38" t="s">
         <v>217</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>218</v>
       </c>
       <c r="E29" s="39">
         <v>54</v>
@@ -3191,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>30</v>
@@ -3209,10 +3209,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>22</v>
@@ -3227,13 +3227,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="D32" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E32" s="39">
         <v>54</v>
@@ -3245,10 +3245,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>37</v>
@@ -3257,7 +3257,7 @@
         <v>54</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3265,13 +3265,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="38" t="s">
         <v>229</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>230</v>
       </c>
       <c r="E34" s="39">
         <v>54</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>30</v>
@@ -3301,10 +3301,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>30</v>
@@ -3319,13 +3319,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="38" t="s">
         <v>236</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>237</v>
       </c>
       <c r="E37" s="39">
         <v>54</v>
@@ -3337,13 +3337,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="38" t="s">
         <v>239</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>240</v>
       </c>
       <c r="E38" s="39">
         <v>54</v>
@@ -3355,13 +3355,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="38" t="s">
         <v>242</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>243</v>
       </c>
       <c r="E39" s="39">
         <v>54</v>
@@ -3373,10 +3373,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>36</v>
@@ -3391,13 +3391,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="38" t="s">
         <v>247</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>248</v>
       </c>
       <c r="E41" s="39">
         <v>54</v>
@@ -3409,10 +3409,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>31</v>
@@ -3427,10 +3427,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>37</v>
@@ -3445,10 +3445,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>31</v>
@@ -3463,10 +3463,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>36</v>
@@ -3481,13 +3481,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="D46" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E46" s="39">
         <v>54</v>
@@ -3499,13 +3499,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="D47" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E47" s="39">
         <v>54</v>
@@ -3517,10 +3517,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>31</v>
@@ -3535,13 +3535,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="38" t="s">
         <v>264</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>265</v>
       </c>
       <c r="E49" s="39">
         <v>54</v>
@@ -3553,13 +3553,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="38" t="s">
         <v>267</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>268</v>
       </c>
       <c r="E50" s="39">
         <v>54</v>
@@ -3571,10 +3571,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>36</v>
@@ -3589,10 +3589,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>22</v>
@@ -3607,10 +3607,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>33</v>
@@ -3625,10 +3625,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>31</v>
@@ -3637,7 +3637,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,13 +3645,13 @@
         <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="D55" s="38" t="s">
         <v>279</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>280</v>
       </c>
       <c r="E55" s="39">
         <v>54</v>
@@ -3667,7 +3667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218295B3-95C6-4056-8916-38091AF1344F}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3680,10 +3680,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3691,7 +3691,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3699,7 +3699,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3707,15 +3707,15 @@
         <v>82</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3723,7 +3723,7 @@
         <v>95</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3731,7 +3731,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3739,7 +3739,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
         <v>85</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3755,12 +3755,12 @@
         <v>94</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>94</v>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB082E67-03B3-4975-8920-349EA60F2CF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7F8651-4962-4509-8A0F-79E7936F6F77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="278">
   <si>
     <t>CBM1000</t>
   </si>
@@ -154,36 +154,12 @@
     <t>Electivo Profesional</t>
   </si>
   <si>
-    <t>CIT33XX-1</t>
-  </si>
-  <si>
-    <t>CIT34XX-1</t>
-  </si>
-  <si>
-    <t>CIT34XX-2</t>
-  </si>
-  <si>
     <t>CIT3200</t>
   </si>
   <si>
-    <t>CIT33XX-2</t>
-  </si>
-  <si>
-    <t>CIT33XX-3</t>
-  </si>
-  <si>
-    <t>CIT34XX-3</t>
-  </si>
-  <si>
-    <t>CIT34XX-4</t>
-  </si>
-  <si>
     <t>CIT3201</t>
   </si>
   <si>
-    <t>CIT33XX-4</t>
-  </si>
-  <si>
     <t>Código</t>
   </si>
   <si>
@@ -334,12 +310,6 @@
     <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
   </si>
   <si>
-    <t>INGLÉS I</t>
-  </si>
-  <si>
-    <t>INGLÉS II</t>
-  </si>
-  <si>
     <t>DERECHO EN INGENIERÍA</t>
   </si>
   <si>
@@ -400,9 +370,6 @@
     <t>Prerreq</t>
   </si>
   <si>
-    <t>Equivalencias</t>
-  </si>
-  <si>
     <t>CIT2109</t>
   </si>
   <si>
@@ -431,9 +398,6 @@
   </si>
   <si>
     <t>CIT2012</t>
-  </si>
-  <si>
-    <t>CIG1012</t>
   </si>
   <si>
     <t>CII2100</t>
@@ -879,37 +843,34 @@
     <t>CIT2102, CIT2200</t>
   </si>
   <si>
-    <t>ESTRUCTURAS DE DATOS Y ALGORITMOS</t>
-  </si>
-  <si>
-    <t>DESARROLLO WEB Y MÓVIL</t>
+    <t>Malla 2010</t>
+  </si>
+  <si>
+    <t>Malla 2020</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>GESTIÓN ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>CIG1002</t>
+  </si>
+  <si>
+    <t>CIG1003</t>
   </si>
   <si>
     <t>INGLÉS GENERAL I</t>
   </si>
   <si>
-    <t>Malla 2010</t>
-  </si>
-  <si>
-    <t>Malla 2020</t>
-  </si>
-  <si>
-    <t>TALLER DE REDES Y SERVICIOS</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA Y ORGANIZ DE COMPUTADORES</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE SOFTWARE</t>
-  </si>
-  <si>
-    <t>DATA SCIENCE</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>GESTIÓN ORGANIZACIONAL</t>
+    <t>INGLÉS GENERAL II</t>
+  </si>
+  <si>
+    <t>CIT33XX</t>
+  </si>
+  <si>
+    <t>CIT34XX</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1127,6 +1088,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1455,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,30 +1432,27 @@
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1501,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
@@ -1512,9 +1471,8 @@
       <c r="F3" s="12">
         <v>0</v>
       </c>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1522,10 +1480,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E4" s="21">
         <v>1</v>
@@ -1533,9 +1491,8 @@
       <c r="F4" s="12">
         <v>0</v>
       </c>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1543,10 +1500,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E5" s="21">
         <v>1</v>
@@ -1554,9 +1511,8 @@
       <c r="F5" s="12">
         <v>0</v>
       </c>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1564,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D6" s="12">
         <v>9</v>
@@ -1575,9 +1531,8 @@
       <c r="F6" s="12">
         <v>0</v>
       </c>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1585,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D7" s="12">
         <v>38</v>
@@ -1596,9 +1551,8 @@
       <c r="F7" s="12">
         <v>0</v>
       </c>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1606,10 +1560,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E8" s="22">
         <v>2</v>
@@ -1617,9 +1571,8 @@
       <c r="F8" s="13">
         <v>1</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1627,10 +1580,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E9" s="22">
         <v>2</v>
@@ -1638,9 +1591,8 @@
       <c r="F9" s="13">
         <v>2</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1648,10 +1600,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
@@ -1659,9 +1611,8 @@
       <c r="F10" s="13">
         <v>2</v>
       </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1669,10 +1620,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E11" s="22">
         <v>2</v>
@@ -1680,20 +1631,19 @@
       <c r="F11" s="13">
         <v>4</v>
       </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E12" s="22">
         <v>2</v>
@@ -1701,9 +1651,8 @@
       <c r="F12" s="13">
         <v>0</v>
       </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1711,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D13" s="14">
         <v>18</v>
@@ -1720,11 +1669,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1732,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
@@ -1743,9 +1691,8 @@
       <c r="F14" s="14">
         <v>7</v>
       </c>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1753,20 +1700,19 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1774,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D16" s="14">
         <v>19</v>
@@ -1784,9 +1730,6 @@
       </c>
       <c r="F16" s="14">
         <v>9</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1797,19 +1740,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E17" s="23">
         <v>3</v>
       </c>
       <c r="F17" s="14">
         <v>9</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1820,18 +1760,17 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E18" s="24">
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="24"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1841,19 +1780,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E19" s="24">
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1864,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D20" s="15">
         <v>23</v>
@@ -1873,9 +1809,8 @@
         <v>4</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="24"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1885,19 +1820,16 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E21" s="24">
         <v>4</v>
       </c>
       <c r="F21" s="15">
         <v>14</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1905,13 +1837,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E22" s="24">
         <v>4</v>
@@ -1919,7 +1851,6 @@
       <c r="F22" s="15">
         <v>0</v>
       </c>
-      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1929,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="D23" s="15">
         <v>27</v>
@@ -1940,7 +1871,6 @@
       <c r="F23" s="15">
         <v>5</v>
       </c>
-      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -1950,7 +1880,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D24" s="16">
         <v>29</v>
@@ -1959,9 +1889,8 @@
         <v>5</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="25"/>
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1971,19 +1900,16 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E25" s="25">
         <v>5</v>
       </c>
       <c r="F25" s="33">
         <v>18</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1994,19 +1920,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E26" s="25">
         <v>5</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2017,19 +1940,16 @@
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E27" s="25">
         <v>5</v>
       </c>
       <c r="F27" s="16">
         <v>19</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2037,13 +1957,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E28" s="25">
         <v>5</v>
@@ -2051,7 +1971,6 @@
       <c r="F28" s="16">
         <v>0</v>
       </c>
-      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -2061,19 +1980,16 @@
         <v>23</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E29" s="25">
         <v>5</v>
       </c>
       <c r="F29" s="16">
         <v>21</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>132</v>
       </c>
       <c r="J29" s="31"/>
     </row>
@@ -2085,19 +2001,16 @@
         <v>24</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
       </c>
       <c r="F30" s="17">
         <v>12</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2108,19 +2021,16 @@
         <v>25</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2131,7 +2041,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D32" s="17">
         <v>35</v>
@@ -2140,13 +2050,10 @@
         <v>6</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -2154,7 +2061,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D33" s="17">
         <v>40</v>
@@ -2163,13 +2070,10 @@
         <v>6</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -2177,7 +2081,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D34" s="17">
         <v>37</v>
@@ -2188,11 +2092,8 @@
       <c r="F34" s="17">
         <v>23</v>
       </c>
-      <c r="G34" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -2200,7 +2101,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D35" s="18">
         <v>46</v>
@@ -2211,9 +2112,8 @@
       <c r="F35" s="18">
         <v>2</v>
       </c>
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -2221,22 +2121,19 @@
         <v>30</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E36" s="27">
         <v>7</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -2244,7 +2141,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D37" s="18">
         <v>41</v>
@@ -2255,11 +2152,8 @@
       <c r="F37" s="18">
         <v>30</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -2267,10 +2161,10 @@
         <v>32</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E38" s="27">
         <v>7</v>
@@ -2278,9 +2172,8 @@
       <c r="F38" s="18">
         <v>0</v>
       </c>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -2288,10 +2181,10 @@
         <v>33</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E39" s="27">
         <v>7</v>
@@ -2299,11 +2192,8 @@
       <c r="F39" s="18">
         <v>32</v>
       </c>
-      <c r="G39" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2311,10 +2201,10 @@
         <v>34</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E40" s="28">
         <v>8</v>
@@ -2322,11 +2212,8 @@
       <c r="F40" s="19">
         <v>5</v>
       </c>
-      <c r="G40" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2334,10 +2221,10 @@
         <v>35</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E41" s="28">
         <v>8</v>
@@ -2345,11 +2232,8 @@
       <c r="F41" s="19">
         <v>34</v>
       </c>
-      <c r="G41" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2357,10 +2241,10 @@
         <v>36</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E42" s="28">
         <v>8</v>
@@ -2368,11 +2252,8 @@
       <c r="F42" s="19">
         <v>31</v>
       </c>
-      <c r="G42" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2380,7 +2261,7 @@
         <v>37</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D43" s="19">
         <v>46</v>
@@ -2389,24 +2270,21 @@
         <v>8</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E44" s="28">
         <v>8</v>
@@ -2414,20 +2292,19 @@
       <c r="F44" s="19">
         <v>0</v>
       </c>
-      <c r="G44" s="28"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E45" s="29">
         <v>9</v>
@@ -2435,20 +2312,19 @@
       <c r="F45" s="20">
         <v>0</v>
       </c>
-      <c r="G45" s="29"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E46" s="29">
         <v>9</v>
@@ -2456,20 +2332,19 @@
       <c r="F46" s="20">
         <v>0</v>
       </c>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E47" s="29">
         <v>9</v>
@@ -2477,17 +2352,16 @@
       <c r="F47" s="20">
         <v>0</v>
       </c>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D48" s="20">
         <v>51</v>
@@ -2496,24 +2370,21 @@
         <v>9</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E49" s="29">
         <v>9</v>
@@ -2521,20 +2392,19 @@
       <c r="F49" s="20">
         <v>0</v>
       </c>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E50" s="30">
         <v>10</v>
@@ -2542,20 +2412,19 @@
       <c r="F50" s="34">
         <v>0</v>
       </c>
-      <c r="G50" s="30"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E51" s="30">
         <v>10</v>
@@ -2563,20 +2432,19 @@
       <c r="F51" s="34">
         <v>0</v>
       </c>
-      <c r="G51" s="30"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E52" s="30">
         <v>10</v>
@@ -2584,20 +2452,19 @@
       <c r="F52" s="34">
         <v>0</v>
       </c>
-      <c r="G52" s="30"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E53" s="30">
         <v>10</v>
@@ -2605,22 +2472,19 @@
       <c r="F53" s="34">
         <v>46</v>
       </c>
-      <c r="G53" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E54" s="30">
         <v>10</v>
@@ -2628,28 +2492,26 @@
       <c r="F54" s="34">
         <v>0</v>
       </c>
-      <c r="G54" s="30"/>
-    </row>
-    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="E55" s="30">
         <v>11</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="G55" s="30"/>
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2661,7 +2523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A12D3C-F185-4C2F-BC8E-E636E865D27E}">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -2676,22 +2538,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,10 +2561,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>37</v>
@@ -2717,10 +2579,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>35</v>
@@ -2735,10 +2597,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>22</v>
@@ -2747,7 +2609,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>30</v>
@@ -2773,10 +2635,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>37</v>
@@ -2791,10 +2653,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>30</v>
@@ -2809,13 +2671,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E9" s="39">
         <v>54</v>
@@ -2827,19 +2689,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E10" s="39">
         <v>54</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,13 +2709,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E11" s="39">
         <v>54</v>
@@ -2865,19 +2727,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E12" s="39">
         <v>54</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2885,13 +2747,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E13" s="39">
         <v>54</v>
@@ -2903,13 +2765,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E14" s="39">
         <v>54</v>
@@ -2921,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>22</v>
@@ -2939,10 +2801,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>37</v>
@@ -2957,10 +2819,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>37</v>
@@ -2975,10 +2837,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>22</v>
@@ -2993,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39">
@@ -3009,13 +2871,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E20" s="39">
         <v>54</v>
@@ -3027,13 +2889,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E21" s="39">
         <v>54</v>
@@ -3045,13 +2907,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E22" s="39">
         <v>54</v>
@@ -3063,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>17</v>
@@ -3081,19 +2943,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E24" s="39">
         <v>54</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,13 +2963,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E25" s="39">
         <v>54</v>
@@ -3119,13 +2981,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E26" s="39">
         <v>54</v>
@@ -3137,10 +2999,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>37</v>
@@ -3155,13 +3017,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E28" s="39">
         <v>54</v>
@@ -3173,13 +3035,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E29" s="39">
         <v>54</v>
@@ -3191,10 +3053,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>30</v>
@@ -3209,10 +3071,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>22</v>
@@ -3227,13 +3089,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E32" s="39">
         <v>54</v>
@@ -3245,10 +3107,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>37</v>
@@ -3257,7 +3119,7 @@
         <v>54</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3265,13 +3127,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E34" s="39">
         <v>54</v>
@@ -3283,10 +3145,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>30</v>
@@ -3301,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>30</v>
@@ -3319,13 +3181,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E37" s="39">
         <v>54</v>
@@ -3337,13 +3199,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E38" s="39">
         <v>54</v>
@@ -3355,13 +3217,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E39" s="39">
         <v>54</v>
@@ -3373,10 +3235,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>36</v>
@@ -3391,13 +3253,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E41" s="39">
         <v>54</v>
@@ -3409,10 +3271,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>31</v>
@@ -3427,10 +3289,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>37</v>
@@ -3445,10 +3307,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>31</v>
@@ -3463,10 +3325,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>36</v>
@@ -3481,13 +3343,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E46" s="39">
         <v>54</v>
@@ -3499,13 +3361,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E47" s="39">
         <v>54</v>
@@ -3517,10 +3379,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>31</v>
@@ -3535,13 +3397,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E49" s="39">
         <v>54</v>
@@ -3553,13 +3415,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E50" s="39">
         <v>54</v>
@@ -3571,10 +3433,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>36</v>
@@ -3589,10 +3451,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>22</v>
@@ -3607,10 +3469,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>33</v>
@@ -3625,10 +3487,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>31</v>
@@ -3637,7 +3499,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,13 +3507,13 @@
         <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E55" s="39">
         <v>54</v>
@@ -3665,10 +3527,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218295B3-95C6-4056-8916-38091AF1344F}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3680,90 +3542,218 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>280</v>
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>281</v>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>280</v>
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>282</v>
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>285</v>
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>286</v>
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>286</v>
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>287</v>
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>288</v>
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>94</v>
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB337D42-C32B-4874-8C4D-B8D4565C6BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7F8651-4962-4509-8A0F-79E7936F6F77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="1290" windowWidth="18000" windowHeight="9810" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="278">
   <si>
     <t>CBM1000</t>
   </si>
@@ -154,36 +154,12 @@
     <t>Electivo Profesional</t>
   </si>
   <si>
-    <t>CIT33XX-1</t>
-  </si>
-  <si>
-    <t>CIT34XX-1</t>
-  </si>
-  <si>
-    <t>CIT34XX-2</t>
-  </si>
-  <si>
     <t>CIT3200</t>
   </si>
   <si>
-    <t>CIT33XX-2</t>
-  </si>
-  <si>
-    <t>CIT33XX-3</t>
-  </si>
-  <si>
-    <t>CIT34XX-3</t>
-  </si>
-  <si>
-    <t>CIT34XX-4</t>
-  </si>
-  <si>
     <t>CIT3201</t>
   </si>
   <si>
-    <t>CIT33XX-4</t>
-  </si>
-  <si>
     <t>Código</t>
   </si>
   <si>
@@ -334,12 +310,6 @@
     <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
   </si>
   <si>
-    <t>INGLÉS I</t>
-  </si>
-  <si>
-    <t>INGLÉS II</t>
-  </si>
-  <si>
     <t>DERECHO EN INGENIERÍA</t>
   </si>
   <si>
@@ -400,9 +370,6 @@
     <t>Prerreq</t>
   </si>
   <si>
-    <t>Equivalencias</t>
-  </si>
-  <si>
     <t>CIT2109</t>
   </si>
   <si>
@@ -431,9 +398,6 @@
   </si>
   <si>
     <t>CIT2012</t>
-  </si>
-  <si>
-    <t>CIG1012</t>
   </si>
   <si>
     <t>CII2100</t>
@@ -879,37 +843,34 @@
     <t>CIT2102, CIT2200</t>
   </si>
   <si>
-    <t>ESTRUCTURAS DE DATOS Y ALGORITMOS</t>
-  </si>
-  <si>
-    <t>DESARROLLO WEB Y MÓVIL</t>
+    <t>Malla 2010</t>
+  </si>
+  <si>
+    <t>Malla 2020</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>GESTIÓN ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>CIG1002</t>
+  </si>
+  <si>
+    <t>CIG1003</t>
   </si>
   <si>
     <t>INGLÉS GENERAL I</t>
   </si>
   <si>
-    <t>Malla 2010</t>
-  </si>
-  <si>
-    <t>Malla 2020</t>
-  </si>
-  <si>
-    <t>TALLER DE REDES Y SERVICIOS</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA Y ORGANIZ DE COMPUTADORES</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE SOFTWARE</t>
-  </si>
-  <si>
-    <t>DATA SCIENCE</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>GESTIÓN ORGANIZACIONAL</t>
+    <t>INGLÉS GENERAL II</t>
+  </si>
+  <si>
+    <t>CIT33XX</t>
+  </si>
+  <si>
+    <t>CIT34XX</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1127,9 +1088,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1157,7 +1119,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1455,11 +1417,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1470,30 +1432,27 @@
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1501,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
@@ -1512,9 +1471,8 @@
       <c r="F3" s="12">
         <v>0</v>
       </c>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1522,10 +1480,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E4" s="21">
         <v>1</v>
@@ -1533,9 +1491,8 @@
       <c r="F4" s="12">
         <v>0</v>
       </c>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1543,10 +1500,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E5" s="21">
         <v>1</v>
@@ -1554,9 +1511,8 @@
       <c r="F5" s="12">
         <v>0</v>
       </c>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1564,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D6" s="12">
         <v>9</v>
@@ -1575,9 +1531,8 @@
       <c r="F6" s="12">
         <v>0</v>
       </c>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1585,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D7" s="12">
         <v>38</v>
@@ -1596,9 +1551,8 @@
       <c r="F7" s="12">
         <v>0</v>
       </c>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1606,10 +1560,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E8" s="22">
         <v>2</v>
@@ -1617,9 +1571,8 @@
       <c r="F8" s="13">
         <v>1</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1627,10 +1580,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E9" s="22">
         <v>2</v>
@@ -1638,9 +1591,8 @@
       <c r="F9" s="13">
         <v>2</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1648,10 +1600,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
@@ -1659,9 +1611,8 @@
       <c r="F10" s="13">
         <v>2</v>
       </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1669,10 +1620,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E11" s="22">
         <v>2</v>
@@ -1680,20 +1631,19 @@
       <c r="F11" s="13">
         <v>4</v>
       </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E12" s="22">
         <v>2</v>
@@ -1701,9 +1651,8 @@
       <c r="F12" s="13">
         <v>0</v>
       </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1711,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D13" s="14">
         <v>18</v>
@@ -1720,11 +1669,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1732,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
@@ -1743,9 +1691,8 @@
       <c r="F14" s="14">
         <v>7</v>
       </c>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1753,20 +1700,19 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1774,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D16" s="14">
         <v>19</v>
@@ -1784,9 +1730,6 @@
       </c>
       <c r="F16" s="14">
         <v>9</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1797,19 +1740,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E17" s="23">
         <v>3</v>
       </c>
       <c r="F17" s="14">
         <v>9</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1820,18 +1760,17 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E18" s="24">
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="24"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1841,19 +1780,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E19" s="24">
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1864,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D20" s="15">
         <v>23</v>
@@ -1873,9 +1809,8 @@
         <v>4</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="24"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1885,19 +1820,16 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E21" s="24">
         <v>4</v>
       </c>
       <c r="F21" s="15">
         <v>14</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1905,13 +1837,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E22" s="24">
         <v>4</v>
@@ -1919,7 +1851,6 @@
       <c r="F22" s="15">
         <v>0</v>
       </c>
-      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1929,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="D23" s="15">
         <v>27</v>
@@ -1940,7 +1871,6 @@
       <c r="F23" s="15">
         <v>5</v>
       </c>
-      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -1950,7 +1880,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D24" s="16">
         <v>29</v>
@@ -1959,9 +1889,8 @@
         <v>5</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="25"/>
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1971,19 +1900,16 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E25" s="25">
         <v>5</v>
       </c>
       <c r="F25" s="33">
         <v>18</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1994,19 +1920,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E26" s="25">
         <v>5</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2017,19 +1940,16 @@
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E27" s="25">
         <v>5</v>
       </c>
       <c r="F27" s="16">
         <v>19</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2037,13 +1957,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E28" s="25">
         <v>5</v>
@@ -2051,7 +1971,6 @@
       <c r="F28" s="16">
         <v>0</v>
       </c>
-      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -2061,19 +1980,16 @@
         <v>23</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E29" s="25">
         <v>5</v>
       </c>
       <c r="F29" s="16">
         <v>21</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>132</v>
       </c>
       <c r="J29" s="31"/>
     </row>
@@ -2085,19 +2001,16 @@
         <v>24</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
       </c>
       <c r="F30" s="17">
         <v>12</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2108,19 +2021,16 @@
         <v>25</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2131,7 +2041,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D32" s="17">
         <v>35</v>
@@ -2140,13 +2050,10 @@
         <v>6</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -2154,7 +2061,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D33" s="17">
         <v>40</v>
@@ -2163,13 +2070,10 @@
         <v>6</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -2177,7 +2081,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D34" s="17">
         <v>37</v>
@@ -2188,11 +2092,8 @@
       <c r="F34" s="17">
         <v>23</v>
       </c>
-      <c r="G34" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -2200,7 +2101,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D35" s="18">
         <v>46</v>
@@ -2211,9 +2112,8 @@
       <c r="F35" s="18">
         <v>2</v>
       </c>
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -2221,22 +2121,19 @@
         <v>30</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E36" s="27">
         <v>7</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -2244,7 +2141,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D37" s="18">
         <v>41</v>
@@ -2255,11 +2152,8 @@
       <c r="F37" s="18">
         <v>30</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -2267,10 +2161,10 @@
         <v>32</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E38" s="27">
         <v>7</v>
@@ -2278,9 +2172,8 @@
       <c r="F38" s="18">
         <v>0</v>
       </c>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -2288,10 +2181,10 @@
         <v>33</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E39" s="27">
         <v>7</v>
@@ -2299,11 +2192,8 @@
       <c r="F39" s="18">
         <v>32</v>
       </c>
-      <c r="G39" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2311,10 +2201,10 @@
         <v>34</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E40" s="28">
         <v>8</v>
@@ -2322,11 +2212,8 @@
       <c r="F40" s="19">
         <v>5</v>
       </c>
-      <c r="G40" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2334,10 +2221,10 @@
         <v>35</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E41" s="28">
         <v>8</v>
@@ -2345,11 +2232,8 @@
       <c r="F41" s="19">
         <v>34</v>
       </c>
-      <c r="G41" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2357,10 +2241,10 @@
         <v>36</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E42" s="28">
         <v>8</v>
@@ -2368,11 +2252,8 @@
       <c r="F42" s="19">
         <v>31</v>
       </c>
-      <c r="G42" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2380,7 +2261,7 @@
         <v>37</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D43" s="19">
         <v>46</v>
@@ -2389,24 +2270,21 @@
         <v>8</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E44" s="28">
         <v>8</v>
@@ -2414,20 +2292,19 @@
       <c r="F44" s="19">
         <v>0</v>
       </c>
-      <c r="G44" s="28"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E45" s="29">
         <v>9</v>
@@ -2435,20 +2312,19 @@
       <c r="F45" s="20">
         <v>0</v>
       </c>
-      <c r="G45" s="29"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E46" s="29">
         <v>9</v>
@@ -2456,20 +2332,19 @@
       <c r="F46" s="20">
         <v>0</v>
       </c>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E47" s="29">
         <v>9</v>
@@ -2477,17 +2352,16 @@
       <c r="F47" s="20">
         <v>0</v>
       </c>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D48" s="20">
         <v>51</v>
@@ -2496,24 +2370,21 @@
         <v>9</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E49" s="29">
         <v>9</v>
@@ -2521,20 +2392,19 @@
       <c r="F49" s="20">
         <v>0</v>
       </c>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E50" s="30">
         <v>10</v>
@@ -2542,20 +2412,19 @@
       <c r="F50" s="34">
         <v>0</v>
       </c>
-      <c r="G50" s="30"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E51" s="30">
         <v>10</v>
@@ -2563,20 +2432,19 @@
       <c r="F51" s="34">
         <v>0</v>
       </c>
-      <c r="G51" s="30"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E52" s="30">
         <v>10</v>
@@ -2584,20 +2452,19 @@
       <c r="F52" s="34">
         <v>0</v>
       </c>
-      <c r="G52" s="30"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E53" s="30">
         <v>10</v>
@@ -2605,22 +2472,19 @@
       <c r="F53" s="34">
         <v>46</v>
       </c>
-      <c r="G53" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E54" s="30">
         <v>10</v>
@@ -2628,28 +2492,26 @@
       <c r="F54" s="34">
         <v>0</v>
       </c>
-      <c r="G54" s="30"/>
-    </row>
-    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="E55" s="30">
         <v>11</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="G55" s="30"/>
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2661,11 +2523,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A12D3C-F185-4C2F-BC8E-E636E865D27E}">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" customWidth="1"/>
@@ -2676,22 +2538,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,10 +2561,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>37</v>
@@ -2717,10 +2579,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>35</v>
@@ -2735,10 +2597,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>22</v>
@@ -2747,7 +2609,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>30</v>
@@ -2773,10 +2635,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>37</v>
@@ -2791,10 +2653,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>30</v>
@@ -2809,13 +2671,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E9" s="39">
         <v>54</v>
@@ -2827,19 +2689,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E10" s="39">
         <v>54</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,13 +2709,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E11" s="39">
         <v>54</v>
@@ -2865,19 +2727,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E12" s="39">
         <v>54</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2885,13 +2747,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E13" s="39">
         <v>54</v>
@@ -2903,13 +2765,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E14" s="39">
         <v>54</v>
@@ -2921,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>22</v>
@@ -2939,10 +2801,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>37</v>
@@ -2957,10 +2819,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>37</v>
@@ -2975,10 +2837,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>22</v>
@@ -2993,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39">
@@ -3009,13 +2871,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E20" s="39">
         <v>54</v>
@@ -3027,13 +2889,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E21" s="39">
         <v>54</v>
@@ -3045,13 +2907,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E22" s="39">
         <v>54</v>
@@ -3063,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>17</v>
@@ -3081,19 +2943,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E24" s="39">
         <v>54</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,13 +2963,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E25" s="39">
         <v>54</v>
@@ -3119,13 +2981,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E26" s="39">
         <v>54</v>
@@ -3137,10 +2999,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>37</v>
@@ -3155,13 +3017,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E28" s="39">
         <v>54</v>
@@ -3173,13 +3035,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E29" s="39">
         <v>54</v>
@@ -3191,10 +3053,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>30</v>
@@ -3209,10 +3071,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>22</v>
@@ -3227,13 +3089,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E32" s="39">
         <v>54</v>
@@ -3245,10 +3107,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>37</v>
@@ -3257,7 +3119,7 @@
         <v>54</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3265,13 +3127,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E34" s="39">
         <v>54</v>
@@ -3283,10 +3145,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>30</v>
@@ -3301,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>30</v>
@@ -3319,13 +3181,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E37" s="39">
         <v>54</v>
@@ -3337,13 +3199,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E38" s="39">
         <v>54</v>
@@ -3355,13 +3217,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E39" s="39">
         <v>54</v>
@@ -3373,10 +3235,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>36</v>
@@ -3391,13 +3253,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E41" s="39">
         <v>54</v>
@@ -3409,10 +3271,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>31</v>
@@ -3427,10 +3289,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>37</v>
@@ -3445,10 +3307,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>31</v>
@@ -3463,10 +3325,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>36</v>
@@ -3481,13 +3343,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E46" s="39">
         <v>54</v>
@@ -3499,13 +3361,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E47" s="39">
         <v>54</v>
@@ -3517,10 +3379,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>31</v>
@@ -3535,13 +3397,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E49" s="39">
         <v>54</v>
@@ -3553,13 +3415,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E50" s="39">
         <v>54</v>
@@ -3571,10 +3433,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>36</v>
@@ -3589,10 +3451,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>22</v>
@@ -3607,10 +3469,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>33</v>
@@ -3625,10 +3487,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>31</v>
@@ -3637,7 +3499,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,13 +3507,13 @@
         <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E55" s="39">
         <v>54</v>
@@ -3665,13 +3527,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218295B3-95C6-4056-8916-38091AF1344F}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
@@ -3680,90 +3542,218 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>280</v>
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>281</v>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>280</v>
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>282</v>
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>285</v>
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>286</v>
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>286</v>
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>287</v>
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>288</v>
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>94</v>
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7F8651-4962-4509-8A0F-79E7936F6F77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182D01E0-2DF8-46C5-B739-3A55C4881B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="13890" yWindow="1395" windowWidth="18000" windowHeight="9810" firstSheet="1" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="278">
   <si>
     <t>CBM1000</t>
   </si>
@@ -627,9 +627,6 @@
     <t>CIT3335</t>
   </si>
   <si>
-    <t>INTERFACE HUMANE MÁQUINA</t>
-  </si>
-  <si>
     <t>CIT2005, CIT2104</t>
   </si>
   <si>
@@ -871,6 +868,9 @@
   </si>
   <si>
     <t>CIT34XX</t>
+  </si>
+  <si>
+    <t>INTERFACE HUMANO MÁQUINA</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1039,12 +1039,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1089,9 +1109,15 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1119,7 +1145,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1417,11 +1443,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1860,7 +1886,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D23" s="15">
         <v>27</v>
@@ -1980,7 +2006,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>107</v>
@@ -2201,7 +2227,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>107</v>
@@ -2298,7 +2324,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>38</v>
@@ -2318,7 +2344,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>38</v>
@@ -2338,7 +2364,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>38</v>
@@ -2378,7 +2404,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>38</v>
@@ -2398,7 +2424,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>38</v>
@@ -2418,7 +2444,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>38</v>
@@ -2438,7 +2464,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>38</v>
@@ -2478,7 +2504,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>38</v>
@@ -2504,7 +2530,7 @@
         <v>106</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E55" s="30">
         <v>11</v>
@@ -2523,11 +2549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A12D3C-F185-4C2F-BC8E-E636E865D27E}">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" customWidth="1"/>
@@ -2984,10 +3010,10 @@
         <v>195</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="38" t="s">
         <v>196</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>197</v>
       </c>
       <c r="E26" s="39">
         <v>54</v>
@@ -2999,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>37</v>
@@ -3017,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="38" t="s">
         <v>201</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>202</v>
       </c>
       <c r="E28" s="39">
         <v>54</v>
@@ -3035,13 +3061,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="38" t="s">
         <v>204</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>205</v>
       </c>
       <c r="E29" s="39">
         <v>54</v>
@@ -3053,10 +3079,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>30</v>
@@ -3071,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>22</v>
@@ -3089,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="D32" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E32" s="39">
         <v>54</v>
@@ -3107,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>37</v>
@@ -3119,7 +3145,7 @@
         <v>54</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3127,13 +3153,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="38" t="s">
         <v>216</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>217</v>
       </c>
       <c r="E34" s="39">
         <v>54</v>
@@ -3145,10 +3171,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>30</v>
@@ -3163,10 +3189,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>30</v>
@@ -3181,13 +3207,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="38" t="s">
         <v>223</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>224</v>
       </c>
       <c r="E37" s="39">
         <v>54</v>
@@ -3199,13 +3225,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="38" t="s">
         <v>226</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>227</v>
       </c>
       <c r="E38" s="39">
         <v>54</v>
@@ -3217,13 +3243,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="38" t="s">
         <v>229</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>230</v>
       </c>
       <c r="E39" s="39">
         <v>54</v>
@@ -3235,10 +3261,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>36</v>
@@ -3253,13 +3279,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="38" t="s">
         <v>234</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>235</v>
       </c>
       <c r="E41" s="39">
         <v>54</v>
@@ -3271,10 +3297,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>31</v>
@@ -3289,10 +3315,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>37</v>
@@ -3307,10 +3333,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>31</v>
@@ -3325,10 +3351,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>36</v>
@@ -3343,13 +3369,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="D46" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E46" s="39">
         <v>54</v>
@@ -3361,13 +3387,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>247</v>
-      </c>
       <c r="D47" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E47" s="39">
         <v>54</v>
@@ -3379,10 +3405,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>31</v>
@@ -3397,13 +3423,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="38" t="s">
         <v>251</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>252</v>
       </c>
       <c r="E49" s="39">
         <v>54</v>
@@ -3415,13 +3441,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="38" t="s">
         <v>254</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>255</v>
       </c>
       <c r="E50" s="39">
         <v>54</v>
@@ -3433,10 +3459,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>36</v>
@@ -3451,10 +3477,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>22</v>
@@ -3469,10 +3495,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>33</v>
@@ -3487,10 +3513,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>31</v>
@@ -3499,7 +3525,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3507,13 +3533,13 @@
         <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="D55" s="38" t="s">
         <v>266</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>267</v>
       </c>
       <c r="E55" s="39">
         <v>54</v>
@@ -3527,13 +3553,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218295B3-95C6-4056-8916-38091AF1344F}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
@@ -3542,10 +3568,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +3635,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3646,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -3630,130 +3656,138 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>113</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>273</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>121</v>
+        <v>25</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>126</v>
+      <c r="A27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182D01E0-2DF8-46C5-B739-3A55C4881B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72203D63-B504-45F0-BF90-1F8FE2FE1A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="1395" windowWidth="18000" windowHeight="9810" firstSheet="1" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="10140" yWindow="3570" windowWidth="18000" windowHeight="9810" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="276">
   <si>
     <t>CBM1000</t>
   </si>
@@ -565,12 +565,6 @@
   </si>
   <si>
     <t>ESTRATEGIAS DE PROGRAMACIÓN</t>
-  </si>
-  <si>
-    <t>CIT3334</t>
-  </si>
-  <si>
-    <t>ESTRUCTURAS DE DATOS COMPACTAS</t>
   </si>
   <si>
     <t>CIT3328</t>
@@ -1443,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,7 +1880,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D23" s="15">
         <v>27</v>
@@ -2006,7 +2000,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>107</v>
@@ -2227,7 +2221,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>107</v>
@@ -2324,7 +2318,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>38</v>
@@ -2344,7 +2338,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>38</v>
@@ -2364,7 +2358,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>38</v>
@@ -2404,7 +2398,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>38</v>
@@ -2424,7 +2418,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>38</v>
@@ -2444,7 +2438,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>38</v>
@@ -2464,7 +2458,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>38</v>
@@ -2504,7 +2498,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>38</v>
@@ -2530,7 +2524,7 @@
         <v>106</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E55" s="30">
         <v>11</v>
@@ -2547,18 +2541,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A12D3C-F185-4C2F-BC8E-E636E865D27E}">
-  <dimension ref="A2:F55"/>
+  <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2573,10 +2567,10 @@
         <v>134</v>
       </c>
       <c r="D2" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>135</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>136</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>137</v>
@@ -2592,11 +2586,11 @@
       <c r="C3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="39">
+        <v>54</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="39">
-        <v>54</v>
       </c>
       <c r="F3" s="40"/>
     </row>
@@ -2610,11 +2604,11 @@
       <c r="C4" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="39">
+        <v>54</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" s="39">
-        <v>54</v>
       </c>
       <c r="F4" s="40"/>
     </row>
@@ -2628,11 +2622,11 @@
       <c r="C5" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="39">
+        <v>54</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="39">
-        <v>54</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>144</v>
@@ -2648,11 +2642,11 @@
       <c r="C6" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="39">
+        <v>54</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="39">
-        <v>54</v>
       </c>
       <c r="F6" s="40"/>
     </row>
@@ -2666,11 +2660,11 @@
       <c r="C7" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39">
+        <v>54</v>
+      </c>
+      <c r="E7" s="38" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="39">
-        <v>54</v>
       </c>
       <c r="F7" s="40"/>
     </row>
@@ -2684,11 +2678,11 @@
       <c r="C8" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="39">
+        <v>54</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="39">
-        <v>54</v>
       </c>
       <c r="F8" s="40"/>
     </row>
@@ -2702,11 +2696,11 @@
       <c r="C9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="39">
+        <v>54</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>153</v>
-      </c>
-      <c r="E9" s="39">
-        <v>54</v>
       </c>
       <c r="F9" s="40"/>
     </row>
@@ -2720,11 +2714,11 @@
       <c r="C10" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="39">
+        <v>54</v>
+      </c>
+      <c r="E10" s="38" t="s">
         <v>156</v>
-      </c>
-      <c r="E10" s="39">
-        <v>54</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>123</v>
@@ -2740,11 +2734,11 @@
       <c r="C11" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="39">
+        <v>54</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>156</v>
-      </c>
-      <c r="E11" s="39">
-        <v>54</v>
       </c>
       <c r="F11" s="40"/>
     </row>
@@ -2758,11 +2752,11 @@
       <c r="C12" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="39">
+        <v>54</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>161</v>
-      </c>
-      <c r="E12" s="39">
-        <v>54</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>123</v>
@@ -2778,11 +2772,11 @@
       <c r="C13" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39">
+        <v>54</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>164</v>
-      </c>
-      <c r="E13" s="39">
-        <v>54</v>
       </c>
       <c r="F13" s="40"/>
     </row>
@@ -2796,11 +2790,11 @@
       <c r="C14" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="39">
+        <v>54</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>167</v>
-      </c>
-      <c r="E14" s="39">
-        <v>54</v>
       </c>
       <c r="F14" s="40"/>
     </row>
@@ -2814,11 +2808,11 @@
       <c r="C15" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="39">
+        <v>54</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>22</v>
-      </c>
-      <c r="E15" s="39">
-        <v>54</v>
       </c>
       <c r="F15" s="40"/>
     </row>
@@ -2832,11 +2826,11 @@
       <c r="C16" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="39">
+        <v>54</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>37</v>
-      </c>
-      <c r="E16" s="39">
-        <v>54</v>
       </c>
       <c r="F16" s="40"/>
     </row>
@@ -2850,11 +2844,11 @@
       <c r="C17" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="39">
+        <v>54</v>
+      </c>
+      <c r="E17" s="38" t="s">
         <v>37</v>
-      </c>
-      <c r="E17" s="39">
-        <v>54</v>
       </c>
       <c r="F17" s="40"/>
     </row>
@@ -2868,11 +2862,11 @@
       <c r="C18" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="39">
+        <v>54</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>22</v>
-      </c>
-      <c r="E18" s="39">
-        <v>54</v>
       </c>
       <c r="F18" s="40"/>
     </row>
@@ -2886,9 +2880,11 @@
       <c r="C19" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39">
-        <v>54</v>
+      <c r="D19" s="39">
+        <v>54</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>178</v>
       </c>
       <c r="F19" s="40"/>
     </row>
@@ -2897,16 +2893,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="39">
+        <v>54</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>178</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="39">
-        <v>54</v>
       </c>
       <c r="F20" s="40"/>
     </row>
@@ -2920,11 +2916,11 @@
       <c r="C21" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="39">
-        <v>54</v>
+      <c r="D21" s="39">
+        <v>54</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>183</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -2933,16 +2929,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="39">
-        <v>54</v>
+      <c r="D22" s="39">
+        <v>54</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>17</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -2956,49 +2952,49 @@
       <c r="C23" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="39">
-        <v>54</v>
-      </c>
-      <c r="F23" s="40"/>
+      <c r="D23" s="39">
+        <v>54</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="39">
-        <v>54</v>
-      </c>
-      <c r="F24" s="40" t="s">
         <v>191</v>
       </c>
+      <c r="D24" s="39">
+        <v>54</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="39">
+        <v>54</v>
+      </c>
+      <c r="E25" s="38" t="s">
         <v>194</v>
-      </c>
-      <c r="E25" s="39">
-        <v>54</v>
       </c>
       <c r="F25" s="40"/>
     </row>
@@ -3010,13 +3006,13 @@
         <v>195</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="39">
-        <v>54</v>
+      <c r="D26" s="39">
+        <v>54</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="F26" s="40"/>
     </row>
@@ -3030,11 +3026,11 @@
       <c r="C27" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="39">
-        <v>54</v>
+      <c r="D27" s="39">
+        <v>54</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>199</v>
       </c>
       <c r="F27" s="40"/>
     </row>
@@ -3043,16 +3039,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="E28" s="39">
-        <v>54</v>
+      <c r="D28" s="39">
+        <v>54</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -3061,16 +3057,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="39">
-        <v>54</v>
+      <c r="D29" s="39">
+        <v>54</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="F29" s="40"/>
     </row>
@@ -3084,11 +3080,11 @@
       <c r="C30" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="39">
-        <v>54</v>
+      <c r="D30" s="39">
+        <v>54</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>22</v>
       </c>
       <c r="F30" s="40"/>
     </row>
@@ -3102,11 +3098,11 @@
       <c r="C31" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="39">
-        <v>54</v>
+      <c r="D31" s="39">
+        <v>54</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>199</v>
       </c>
       <c r="F31" s="40"/>
     </row>
@@ -3120,49 +3116,49 @@
       <c r="C32" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D32" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E32" s="39">
-        <v>54</v>
-      </c>
-      <c r="F32" s="40"/>
+      <c r="D32" s="39">
+        <v>54</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="39">
-        <v>54</v>
-      </c>
-      <c r="F33" s="40" t="s">
         <v>213</v>
       </c>
+      <c r="D33" s="39">
+        <v>54</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="39">
-        <v>54</v>
+      <c r="D34" s="39">
+        <v>54</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="F34" s="40"/>
     </row>
@@ -3176,11 +3172,11 @@
       <c r="C35" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="39">
+        <v>54</v>
+      </c>
+      <c r="E35" s="38" t="s">
         <v>30</v>
-      </c>
-      <c r="E35" s="39">
-        <v>54</v>
       </c>
       <c r="F35" s="40"/>
     </row>
@@ -3194,29 +3190,29 @@
       <c r="C36" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="39">
-        <v>54</v>
+      <c r="D36" s="39">
+        <v>54</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>221</v>
       </c>
       <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D37" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="E37" s="39">
-        <v>54</v>
+      <c r="D37" s="39">
+        <v>54</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>224</v>
       </c>
       <c r="F37" s="40"/>
     </row>
@@ -3225,16 +3221,16 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="E38" s="39">
-        <v>54</v>
+      <c r="D38" s="39">
+        <v>54</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>227</v>
       </c>
       <c r="F38" s="40"/>
     </row>
@@ -3243,16 +3239,16 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D39" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="E39" s="39">
-        <v>54</v>
+      <c r="D39" s="39">
+        <v>54</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="F39" s="40"/>
     </row>
@@ -3266,11 +3262,11 @@
       <c r="C40" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D40" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="39">
-        <v>54</v>
+      <c r="D40" s="39">
+        <v>54</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>232</v>
       </c>
       <c r="F40" s="40"/>
     </row>
@@ -3279,16 +3275,16 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="E41" s="39">
-        <v>54</v>
+      <c r="D41" s="39">
+        <v>54</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="F41" s="40"/>
     </row>
@@ -3302,11 +3298,11 @@
       <c r="C42" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D42" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="39">
-        <v>54</v>
+      <c r="D42" s="39">
+        <v>54</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="F42" s="40"/>
     </row>
@@ -3320,11 +3316,11 @@
       <c r="C43" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D43" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="39">
-        <v>54</v>
+      <c r="D43" s="39">
+        <v>54</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="F43" s="40"/>
     </row>
@@ -3338,11 +3334,11 @@
       <c r="C44" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D44" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="39">
-        <v>54</v>
+      <c r="D44" s="39">
+        <v>54</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="F44" s="40"/>
     </row>
@@ -3356,11 +3352,11 @@
       <c r="C45" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D45" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="39">
-        <v>54</v>
+      <c r="D45" s="39">
+        <v>54</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>227</v>
       </c>
       <c r="F45" s="40"/>
     </row>
@@ -3374,11 +3370,11 @@
       <c r="C46" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D46" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" s="39">
-        <v>54</v>
+      <c r="D46" s="39">
+        <v>54</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>224</v>
       </c>
       <c r="F46" s="40"/>
     </row>
@@ -3392,11 +3388,11 @@
       <c r="C47" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D47" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="E47" s="39">
-        <v>54</v>
+      <c r="D47" s="39">
+        <v>54</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="F47" s="40"/>
     </row>
@@ -3410,11 +3406,11 @@
       <c r="C48" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D48" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="39">
-        <v>54</v>
+      <c r="D48" s="39">
+        <v>54</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>249</v>
       </c>
       <c r="F48" s="40"/>
     </row>
@@ -3423,16 +3419,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D49" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="E49" s="39">
-        <v>54</v>
+      <c r="D49" s="39">
+        <v>54</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>252</v>
       </c>
       <c r="F49" s="40"/>
     </row>
@@ -3441,16 +3437,16 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D50" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="E50" s="39">
-        <v>54</v>
+      <c r="D50" s="39">
+        <v>54</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="F50" s="40"/>
     </row>
@@ -3464,11 +3460,11 @@
       <c r="C51" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D51" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="39">
-        <v>54</v>
+      <c r="D51" s="39">
+        <v>54</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>22</v>
       </c>
       <c r="F51" s="40"/>
     </row>
@@ -3482,11 +3478,11 @@
       <c r="C52" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D52" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="39">
-        <v>54</v>
+      <c r="D52" s="39">
+        <v>54</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="F52" s="40"/>
     </row>
@@ -3500,51 +3496,33 @@
       <c r="C53" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D53" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="39">
-        <v>54</v>
-      </c>
-      <c r="F53" s="40"/>
+      <c r="D53" s="39">
+        <v>54</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="39">
-        <v>54</v>
-      </c>
-      <c r="F54" s="40" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>2</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="D54" s="39">
+        <v>54</v>
+      </c>
+      <c r="E54" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="E55" s="39">
-        <v>54</v>
-      </c>
-      <c r="F55" s="40"/>
+      <c r="F54" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3568,10 +3546,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3635,7 +3613,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3659,7 +3637,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3776,7 +3754,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>122</v>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72203D63-B504-45F0-BF90-1F8FE2FE1A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E43D4B-27A4-442D-BC6C-A9331C1AB1B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="3570" windowWidth="18000" windowHeight="9810" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -1111,7 +1111,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1139,7 +1139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1441,7 +1441,7 @@
       <selection activeCell="A3" sqref="A3:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -2543,11 +2543,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A12D3C-F185-4C2F-BC8E-E636E865D27E}">
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" customWidth="1"/>
@@ -3533,11 +3533,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218295B3-95C6-4056-8916-38091AF1344F}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E43D4B-27A4-442D-BC6C-A9331C1AB1B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC3A4F-524B-4F48-A4FF-787F53F69D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="23880" yWindow="1935" windowWidth="20730" windowHeight="11760" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="299">
   <si>
     <t>CBM1000</t>
   </si>
@@ -151,9 +151,6 @@
     <t>CIT2201</t>
   </si>
   <si>
-    <t>Electivo Profesional</t>
-  </si>
-  <si>
     <t>CIT3200</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>39, 41</t>
   </si>
   <si>
-    <t>CFG</t>
-  </si>
-  <si>
     <t>MECÁNICA</t>
   </si>
   <si>
@@ -427,444 +421,519 @@
     <t>CIT2010</t>
   </si>
   <si>
-    <t xml:space="preserve">3, 10, 13 , 17, 20, 26, 27, 28, 29,
+    <t>31, 34</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Prerrequisito</t>
+  </si>
+  <si>
+    <t>Abre</t>
+  </si>
+  <si>
+    <t>Equivalencia</t>
+  </si>
+  <si>
+    <t>CIT3332</t>
+  </si>
+  <si>
+    <t>ANÁLISIS DE DATOS GEOGRÁFICOS</t>
+  </si>
+  <si>
+    <t>CIT3337</t>
+  </si>
+  <si>
+    <t>ASEGURAMIENTO DE CALIDAD</t>
+  </si>
+  <si>
+    <t>CIT3317</t>
+  </si>
+  <si>
+    <t>BASES DE DATOS DE GRAN VOLUMEN</t>
+  </si>
+  <si>
+    <t>CIT2009</t>
+  </si>
+  <si>
+    <t>CIT3343</t>
+  </si>
+  <si>
+    <t>BIOINFORMÁTICA</t>
+  </si>
+  <si>
+    <t>CIT3338</t>
+  </si>
+  <si>
+    <t>COMPRESIÓN DE DATOS</t>
+  </si>
+  <si>
+    <t>CIT3320</t>
+  </si>
+  <si>
+    <t>CONTINUIDAD DE NEGOCIOS</t>
+  </si>
+  <si>
+    <t>CIT3350</t>
+  </si>
+  <si>
+    <t>DATA STREAM PROCESSING</t>
+  </si>
+  <si>
+    <t>CIT2003, CIT2104, CIT2010, CIT2109</t>
+  </si>
+  <si>
+    <t>CIT3322</t>
+  </si>
+  <si>
+    <t>DESARROLLO DE APLICACIONES MÓVILES</t>
+  </si>
+  <si>
+    <t>CIT2004, CIT2005</t>
+  </si>
+  <si>
+    <t>CIT3315</t>
+  </si>
+  <si>
+    <t>DESARROLLO DE SOFTWARE DIRIGIDO POR MODE</t>
+  </si>
+  <si>
+    <t>CIT3323</t>
+  </si>
+  <si>
+    <t>DESARROLLO WEB</t>
+  </si>
+  <si>
+    <t>CIT2002, CIT2200</t>
+  </si>
+  <si>
+    <t>CIT3329</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN Y CONTROL DE PROYECTOS TECNOLÓ</t>
+  </si>
+  <si>
+    <t>CIT1000, CIT2201, CIT2203</t>
+  </si>
+  <si>
+    <t>CIT3347</t>
+  </si>
+  <si>
+    <t>DIS Y DESARROLLO DE SIST INTERACTIVOS</t>
+  </si>
+  <si>
+    <t>CIT2012, CIT2005</t>
+  </si>
+  <si>
+    <t>CIT3330</t>
+  </si>
+  <si>
+    <t>DISEÑO DE SISTEMAS TRANSACCIONALES</t>
+  </si>
+  <si>
+    <t>CIT3341</t>
+  </si>
+  <si>
+    <t>E-BUSINESS</t>
+  </si>
+  <si>
+    <t>CIT3331</t>
+  </si>
+  <si>
+    <t>EMPRENDIMIENTO TIC</t>
+  </si>
+  <si>
+    <t>CIT3327</t>
+  </si>
+  <si>
+    <t>ESTRATEGIAS DE PROGRAMACIÓN</t>
+  </si>
+  <si>
+    <t>CIT3328</t>
+  </si>
+  <si>
+    <t>GESTIÓN EN INNOVACIÓN TECNOLÓGICA</t>
+  </si>
+  <si>
+    <t>CIT2201, CIT2203</t>
+  </si>
+  <si>
+    <t>CIT3340</t>
+  </si>
+  <si>
+    <t>GESTION ESTRATÉGICA PARA INFORMÁTICA</t>
+  </si>
+  <si>
+    <t>CIT3349</t>
+  </si>
+  <si>
+    <t>GRAFOS Y ALGORITMOS</t>
+  </si>
+  <si>
+    <t>CII2750, CIT2204, CIT2007, CIT2002</t>
+  </si>
+  <si>
+    <t>CIT3318</t>
+  </si>
+  <si>
+    <t>IMPLEMENTACIÓN DE ALGORITMOS</t>
+  </si>
+  <si>
+    <t>CIT3346</t>
+  </si>
+  <si>
+    <t>INTELIGENCIA ARTIFICIAL</t>
+  </si>
+  <si>
+    <t>CBM1006, CIT2002, CIT2005, CIT2204</t>
+  </si>
+  <si>
+    <t>CIT2013</t>
+  </si>
+  <si>
+    <t>CIT3325</t>
+  </si>
+  <si>
+    <t>INTELIGENCIA DE NEGOCIOS</t>
+  </si>
+  <si>
+    <t>CIT2005, CIT2012</t>
+  </si>
+  <si>
+    <t>CIT3335</t>
+  </si>
+  <si>
+    <t>CIT2005, CIT2104</t>
+  </si>
+  <si>
+    <t>CIT3321</t>
+  </si>
+  <si>
+    <t>MINERÍA DE DATOS Y PROCESAMIENTO DE LENG</t>
+  </si>
+  <si>
+    <t>CIT3319</t>
+  </si>
+  <si>
+    <t>MODELOS CENTRADOS EN EL USUARIO</t>
+  </si>
+  <si>
+    <t>CIT2005, CIT2202</t>
+  </si>
+  <si>
+    <t>CIT3344</t>
+  </si>
+  <si>
+    <t>PROC DE DATOS Y TEC DE MACHINE LEARNING</t>
+  </si>
+  <si>
+    <t>CIT2002, CIT2202</t>
+  </si>
+  <si>
+    <t>CIT3345</t>
+  </si>
+  <si>
+    <t>PROCESOS ÁGILES</t>
+  </si>
+  <si>
+    <t>CIT3314</t>
+  </si>
+  <si>
+    <t>RECONOCIMIENTO DE PATRONES</t>
+  </si>
+  <si>
+    <t>CIT3316</t>
+  </si>
+  <si>
+    <t>SISTEMA DE RECOMENDACIÓN</t>
+  </si>
+  <si>
+    <t>CIT3342</t>
+  </si>
+  <si>
+    <t>SISTEMAS DISTRIBUIDOS</t>
+  </si>
+  <si>
+    <t>CIT2011</t>
+  </si>
+  <si>
+    <t>CIT3348</t>
+  </si>
+  <si>
+    <t>TALLER DE TRANSFORMACIÓN DIGITAL</t>
+  </si>
+  <si>
+    <t>CIT2005, CIT3100</t>
+  </si>
+  <si>
+    <t>CIT3339</t>
+  </si>
+  <si>
+    <t>TÉCNICAS AGILES Y AUTOMATICAS PARA PROYE</t>
+  </si>
+  <si>
+    <t>CIT3336</t>
+  </si>
+  <si>
+    <t>VIDEO JUEGOS</t>
+  </si>
+  <si>
+    <t>CIT3326</t>
+  </si>
+  <si>
+    <t>VISIÓN POR COMPUTADOR</t>
+  </si>
+  <si>
+    <t>CIT2003, CIT2102</t>
+  </si>
+  <si>
+    <t>CIT3425</t>
+  </si>
+  <si>
+    <t>ANÁLISIS Y CONFIG. DE SERVICIOS EN RED</t>
+  </si>
+  <si>
+    <t>CIT2100, CIT2105</t>
+  </si>
+  <si>
+    <t>CIT3426</t>
+  </si>
+  <si>
+    <t>ANÁLISIS Y SIMULACIÓN DE SIST. COMUNIC.</t>
+  </si>
+  <si>
+    <t>CIT2100, CIT2102</t>
+  </si>
+  <si>
+    <t>CIT3424</t>
+  </si>
+  <si>
+    <t>CODIFICACIÓN Y ELEMENTOS DE CRIPTOGRAFÍA</t>
+  </si>
+  <si>
+    <t>CIT3422</t>
+  </si>
+  <si>
+    <t>COMPOSICIÓN MUSICAL ASISTIDA POR COMPUT.</t>
+  </si>
+  <si>
+    <t>CIT2102, CIT2201</t>
+  </si>
+  <si>
+    <t>CIT3421</t>
+  </si>
+  <si>
+    <t>COMUNICACIONES DIGITALES AVANZADAS</t>
+  </si>
+  <si>
+    <t>CIT3427</t>
+  </si>
+  <si>
+    <t>INTERNET DE LAS COSAS</t>
+  </si>
+  <si>
+    <t>CIT3428</t>
+  </si>
+  <si>
+    <t>MÉT. EN DISEÑO DE REDES DE COMUNIC.</t>
+  </si>
+  <si>
+    <t>CIT3416</t>
+  </si>
+  <si>
+    <t>PROCESAMIENTO DIGITAL DE SEÑALES</t>
+  </si>
+  <si>
+    <t>CIT3429</t>
+  </si>
+  <si>
+    <t>PROTOCOLOS DE ENRUTAMIENTO</t>
+  </si>
+  <si>
+    <t>CIT3419</t>
+  </si>
+  <si>
+    <t>REDES DE DATOS AVANZADAS</t>
+  </si>
+  <si>
+    <t>CIT3431</t>
+  </si>
+  <si>
+    <t>REDES MÓVILES CELULARES</t>
+  </si>
+  <si>
+    <t>CIT3420</t>
+  </si>
+  <si>
+    <t>REDES ÓPTICAS DE DATOS</t>
+  </si>
+  <si>
+    <t>CIT2100, CIT2104</t>
+  </si>
+  <si>
+    <t>CIT3430</t>
+  </si>
+  <si>
+    <t>REGULACIÓN DE TICS</t>
+  </si>
+  <si>
+    <t>CIT2102, FIC1003</t>
+  </si>
+  <si>
+    <t>CIT3415</t>
+  </si>
+  <si>
+    <t>SEGURIDAD Y PENTESTING DE APLICACIONES</t>
+  </si>
+  <si>
+    <t>CIT3414</t>
+  </si>
+  <si>
+    <t>SISTEMA DE ALTA DISPONIBILIDAD</t>
+  </si>
+  <si>
+    <t>CIT3418</t>
+  </si>
+  <si>
+    <t>SISTEMA EMBEBIDOS</t>
+  </si>
+  <si>
+    <t>CIT3417</t>
+  </si>
+  <si>
+    <t>TECNOLOGÍAS INALÁMBRICAS</t>
+  </si>
+  <si>
+    <t>CIT2112</t>
+  </si>
+  <si>
+    <t>CIT3423</t>
+  </si>
+  <si>
+    <t>TELEVISIÓN DIGITAL</t>
+  </si>
+  <si>
+    <t>CIT2102, CIT2200</t>
+  </si>
+  <si>
+    <t>Malla 2010</t>
+  </si>
+  <si>
+    <t>Malla 2020</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>GESTIÓN ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>CIG1002</t>
+  </si>
+  <si>
+    <t>CIG1003</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL II</t>
+  </si>
+  <si>
+    <t>INTERFACE HUMANO MÁQUINA</t>
+  </si>
+  <si>
+    <t>PRÁCTICA PROFESIONAL 1</t>
+  </si>
+  <si>
+    <t>CIT5001</t>
+  </si>
+  <si>
+    <t>38,21</t>
+  </si>
+  <si>
+    <t>PRÁCTICA PROFESIONAL 2</t>
+  </si>
+  <si>
+    <t>CIT5002</t>
+  </si>
+  <si>
+    <t>3, 10, 13 , 17, 20, 26, 27, 28, 29,
  36, 37, 38, 39, 40, 42, 43, 44, 
-45, 47, 48, 49, 50, 51, 52 </t>
-  </si>
-  <si>
-    <t>31, 34</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Prerrequisito</t>
-  </si>
-  <si>
-    <t>Abre</t>
-  </si>
-  <si>
-    <t>Equivalencia</t>
-  </si>
-  <si>
-    <t>CIT3332</t>
-  </si>
-  <si>
-    <t>ANÁLISIS DE DATOS GEOGRÁFICOS</t>
-  </si>
-  <si>
-    <t>CIT3337</t>
-  </si>
-  <si>
-    <t>ASEGURAMIENTO DE CALIDAD</t>
-  </si>
-  <si>
-    <t>CIT3317</t>
-  </si>
-  <si>
-    <t>BASES DE DATOS DE GRAN VOLUMEN</t>
-  </si>
-  <si>
-    <t>CIT2009</t>
-  </si>
-  <si>
-    <t>CIT3343</t>
-  </si>
-  <si>
-    <t>BIOINFORMÁTICA</t>
-  </si>
-  <si>
-    <t>CIT3338</t>
-  </si>
-  <si>
-    <t>COMPRESIÓN DE DATOS</t>
-  </si>
-  <si>
-    <t>CIT3320</t>
-  </si>
-  <si>
-    <t>CONTINUIDAD DE NEGOCIOS</t>
-  </si>
-  <si>
-    <t>CIT3350</t>
-  </si>
-  <si>
-    <t>DATA STREAM PROCESSING</t>
-  </si>
-  <si>
-    <t>CIT2003, CIT2104, CIT2010, CIT2109</t>
-  </si>
-  <si>
-    <t>CIT3322</t>
-  </si>
-  <si>
-    <t>DESARROLLO DE APLICACIONES MÓVILES</t>
-  </si>
-  <si>
-    <t>CIT2004, CIT2005</t>
-  </si>
-  <si>
-    <t>CIT3315</t>
-  </si>
-  <si>
-    <t>DESARROLLO DE SOFTWARE DIRIGIDO POR MODE</t>
-  </si>
-  <si>
-    <t>CIT3323</t>
-  </si>
-  <si>
-    <t>DESARROLLO WEB</t>
-  </si>
-  <si>
-    <t>CIT2002, CIT2200</t>
-  </si>
-  <si>
-    <t>CIT3329</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN Y CONTROL DE PROYECTOS TECNOLÓ</t>
-  </si>
-  <si>
-    <t>CIT1000, CIT2201, CIT2203</t>
-  </si>
-  <si>
-    <t>CIT3347</t>
-  </si>
-  <si>
-    <t>DIS Y DESARROLLO DE SIST INTERACTIVOS</t>
-  </si>
-  <si>
-    <t>CIT2012, CIT2005</t>
-  </si>
-  <si>
-    <t>CIT3330</t>
-  </si>
-  <si>
-    <t>DISEÑO DE SISTEMAS TRANSACCIONALES</t>
-  </si>
-  <si>
-    <t>CIT3341</t>
-  </si>
-  <si>
-    <t>E-BUSINESS</t>
-  </si>
-  <si>
-    <t>CIT3331</t>
-  </si>
-  <si>
-    <t>EMPRENDIMIENTO TIC</t>
-  </si>
-  <si>
-    <t>CIT3327</t>
-  </si>
-  <si>
-    <t>ESTRATEGIAS DE PROGRAMACIÓN</t>
-  </si>
-  <si>
-    <t>CIT3328</t>
-  </si>
-  <si>
-    <t>GESTIÓN EN INNOVACIÓN TECNOLÓGICA</t>
-  </si>
-  <si>
-    <t>CIT2201, CIT2203</t>
-  </si>
-  <si>
-    <t>CIT3340</t>
-  </si>
-  <si>
-    <t>GESTION ESTRATÉGICA PARA INFORMÁTICA</t>
-  </si>
-  <si>
-    <t>CIT3349</t>
-  </si>
-  <si>
-    <t>GRAFOS Y ALGORITMOS</t>
-  </si>
-  <si>
-    <t>CII2750, CIT2204, CIT2007, CIT2002</t>
-  </si>
-  <si>
-    <t>CIT3318</t>
-  </si>
-  <si>
-    <t>IMPLEMENTACIÓN DE ALGORITMOS</t>
-  </si>
-  <si>
-    <t>CIT3346</t>
-  </si>
-  <si>
-    <t>INTELIGENCIA ARTIFICIAL</t>
-  </si>
-  <si>
-    <t>CBM1006, CIT2002, CIT2005, CIT2204</t>
-  </si>
-  <si>
-    <t>CIT2013</t>
-  </si>
-  <si>
-    <t>CIT3325</t>
-  </si>
-  <si>
-    <t>INTELIGENCIA DE NEGOCIOS</t>
-  </si>
-  <si>
-    <t>CIT2005, CIT2012</t>
-  </si>
-  <si>
-    <t>CIT3335</t>
-  </si>
-  <si>
-    <t>CIT2005, CIT2104</t>
-  </si>
-  <si>
-    <t>CIT3321</t>
-  </si>
-  <si>
-    <t>MINERÍA DE DATOS Y PROCESAMIENTO DE LENG</t>
-  </si>
-  <si>
-    <t>CIT3319</t>
-  </si>
-  <si>
-    <t>MODELOS CENTRADOS EN EL USUARIO</t>
-  </si>
-  <si>
-    <t>CIT2005, CIT2202</t>
-  </si>
-  <si>
-    <t>CIT3344</t>
-  </si>
-  <si>
-    <t>PROC DE DATOS Y TEC DE MACHINE LEARNING</t>
-  </si>
-  <si>
-    <t>CIT2002, CIT2202</t>
-  </si>
-  <si>
-    <t>CIT3345</t>
-  </si>
-  <si>
-    <t>PROCESOS ÁGILES</t>
-  </si>
-  <si>
-    <t>CIT3314</t>
-  </si>
-  <si>
-    <t>RECONOCIMIENTO DE PATRONES</t>
-  </si>
-  <si>
-    <t>CIT3316</t>
-  </si>
-  <si>
-    <t>SISTEMA DE RECOMENDACIÓN</t>
-  </si>
-  <si>
-    <t>CIT3342</t>
-  </si>
-  <si>
-    <t>SISTEMAS DISTRIBUIDOS</t>
-  </si>
-  <si>
-    <t>CIT2011</t>
-  </si>
-  <si>
-    <t>CIT3348</t>
-  </si>
-  <si>
-    <t>TALLER DE TRANSFORMACIÓN DIGITAL</t>
-  </si>
-  <si>
-    <t>CIT2005, CIT3100</t>
-  </si>
-  <si>
-    <t>CIT3339</t>
-  </si>
-  <si>
-    <t>TÉCNICAS AGILES Y AUTOMATICAS PARA PROYE</t>
-  </si>
-  <si>
-    <t>CIT3336</t>
-  </si>
-  <si>
-    <t>VIDEO JUEGOS</t>
-  </si>
-  <si>
-    <t>CIT3326</t>
-  </si>
-  <si>
-    <t>VISIÓN POR COMPUTADOR</t>
-  </si>
-  <si>
-    <t>CIT2003, CIT2102</t>
-  </si>
-  <si>
-    <t>CIT3425</t>
-  </si>
-  <si>
-    <t>ANÁLISIS Y CONFIG. DE SERVICIOS EN RED</t>
-  </si>
-  <si>
-    <t>CIT2100, CIT2105</t>
-  </si>
-  <si>
-    <t>CIT3426</t>
-  </si>
-  <si>
-    <t>ANÁLISIS Y SIMULACIÓN DE SIST. COMUNIC.</t>
-  </si>
-  <si>
-    <t>CIT2100, CIT2102</t>
-  </si>
-  <si>
-    <t>CIT3424</t>
-  </si>
-  <si>
-    <t>CODIFICACIÓN Y ELEMENTOS DE CRIPTOGRAFÍA</t>
-  </si>
-  <si>
-    <t>CIT3422</t>
-  </si>
-  <si>
-    <t>COMPOSICIÓN MUSICAL ASISTIDA POR COMPUT.</t>
-  </si>
-  <si>
-    <t>CIT2102, CIT2201</t>
-  </si>
-  <si>
-    <t>CIT3421</t>
-  </si>
-  <si>
-    <t>COMUNICACIONES DIGITALES AVANZADAS</t>
-  </si>
-  <si>
-    <t>CIT3427</t>
-  </si>
-  <si>
-    <t>INTERNET DE LAS COSAS</t>
-  </si>
-  <si>
-    <t>CIT3428</t>
-  </si>
-  <si>
-    <t>MÉT. EN DISEÑO DE REDES DE COMUNIC.</t>
-  </si>
-  <si>
-    <t>CIT3416</t>
-  </si>
-  <si>
-    <t>PROCESAMIENTO DIGITAL DE SEÑALES</t>
-  </si>
-  <si>
-    <t>CIT3429</t>
-  </si>
-  <si>
-    <t>PROTOCOLOS DE ENRUTAMIENTO</t>
-  </si>
-  <si>
-    <t>CIT3419</t>
-  </si>
-  <si>
-    <t>REDES DE DATOS AVANZADAS</t>
-  </si>
-  <si>
-    <t>CIT3431</t>
-  </si>
-  <si>
-    <t>REDES MÓVILES CELULARES</t>
-  </si>
-  <si>
-    <t>CIT3420</t>
-  </si>
-  <si>
-    <t>REDES ÓPTICAS DE DATOS</t>
-  </si>
-  <si>
-    <t>CIT2100, CIT2104</t>
-  </si>
-  <si>
-    <t>CIT3430</t>
-  </si>
-  <si>
-    <t>REGULACIÓN DE TICS</t>
-  </si>
-  <si>
-    <t>CIT2102, FIC1003</t>
-  </si>
-  <si>
-    <t>CIT3415</t>
-  </si>
-  <si>
-    <t>SEGURIDAD Y PENTESTING DE APLICACIONES</t>
-  </si>
-  <si>
-    <t>CIT3414</t>
-  </si>
-  <si>
-    <t>SISTEMA DE ALTA DISPONIBILIDAD</t>
-  </si>
-  <si>
-    <t>CIT3418</t>
-  </si>
-  <si>
-    <t>SISTEMA EMBEBIDOS</t>
-  </si>
-  <si>
-    <t>CIT3417</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍAS INALÁMBRICAS</t>
-  </si>
-  <si>
-    <t>CIT2112</t>
-  </si>
-  <si>
-    <t>CIT3423</t>
-  </si>
-  <si>
-    <t>TELEVISIÓN DIGITAL</t>
-  </si>
-  <si>
-    <t>CIT2102, CIT2200</t>
-  </si>
-  <si>
-    <t>Malla 2010</t>
-  </si>
-  <si>
-    <t>Malla 2020</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>GESTIÓN ORGANIZACIONAL</t>
-  </si>
-  <si>
-    <t>CIG1002</t>
-  </si>
-  <si>
-    <t>CIG1003</t>
-  </si>
-  <si>
-    <t>INGLÉS GENERAL I</t>
-  </si>
-  <si>
-    <t>INGLÉS GENERAL II</t>
-  </si>
-  <si>
-    <t>CIT33XX</t>
-  </si>
-  <si>
-    <t>CIT34XX</t>
-  </si>
-  <si>
-    <t>INTERFACE HUMANO MÁQUINA</t>
+45, 47, 48, 49, 50, 51, 52,53,54</t>
+  </si>
+  <si>
+    <t>CFG-1</t>
+  </si>
+  <si>
+    <t>CFG-2</t>
+  </si>
+  <si>
+    <t>CFG-3</t>
+  </si>
+  <si>
+    <t>CFG-4</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 1</t>
+  </si>
+  <si>
+    <t>CIT3310</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 2</t>
+  </si>
+  <si>
+    <t>CIT3311</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 4</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 3</t>
+  </si>
+  <si>
+    <t>CIT3312</t>
+  </si>
+  <si>
+    <t>CIT3313</t>
+  </si>
+  <si>
+    <t>CIT3410</t>
+  </si>
+  <si>
+    <t>CIT3411</t>
+  </si>
+  <si>
+    <t>CIT3412</t>
+  </si>
+  <si>
+    <t>CIT3413</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 4</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 3</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 2</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 1</t>
+  </si>
+  <si>
+    <t>53, 26, 27, 28, 29, 33, 36, 37, 38, 39 ,40 , 41, 42</t>
+  </si>
+  <si>
+    <t>3,10, 13, 15, 16, 17, 18 ,19 ,20, 21</t>
   </si>
 </sst>
 </file>
@@ -904,7 +973,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,6 +1063,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1058,7 +1133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1109,9 +1184,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1139,7 +1256,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1435,1102 +1552,1138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
-  <dimension ref="A2:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="4" max="4" width="27" style="55" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>110</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="45">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="45">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
+      <c r="E3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
+        <v>66</v>
+      </c>
+      <c r="D4" s="45">
         <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
+        <v>69</v>
+      </c>
+      <c r="D5" s="45">
         <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>9</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="12">
-        <v>9</v>
-      </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
+        <v>88</v>
+      </c>
+      <c r="D6" s="45">
         <v>0</v>
       </c>
+      <c r="E6" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="12">
-        <v>38</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="46">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="22">
+        <v>62</v>
+      </c>
+      <c r="D8" s="46">
         <v>2</v>
       </c>
-      <c r="F8" s="13">
-        <v>1</v>
+      <c r="E8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="22">
+        <v>56</v>
+      </c>
+      <c r="D9" s="46">
         <v>2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="E9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="22">
-        <v>2</v>
-      </c>
-      <c r="F10" s="13">
+        <v>70</v>
+      </c>
+      <c r="D10" s="46">
+        <v>4</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="22">
-        <v>2</v>
-      </c>
-      <c r="F11" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="22">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="14">
+        <v>18</v>
+      </c>
+      <c r="F12" s="23">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="14">
-        <v>18</v>
-      </c>
-      <c r="E13" s="23">
+        <v>64</v>
+      </c>
+      <c r="D13" s="47">
+        <v>7</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="23">
         <v>3</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="23">
+        <v>57</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="23">
         <v>3</v>
-      </c>
-      <c r="F14" s="14">
-        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="23">
+        <v>71</v>
+      </c>
+      <c r="D15" s="47">
+        <v>9</v>
+      </c>
+      <c r="E15" s="14">
+        <v>19</v>
+      </c>
+      <c r="F15" s="23">
         <v>3</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="47">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="14">
-        <v>19</v>
-      </c>
-      <c r="E16" s="23">
-        <v>3</v>
-      </c>
-      <c r="F16" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="23">
-        <v>3</v>
-      </c>
-      <c r="F17" s="14">
-        <v>9</v>
+      <c r="F17" s="24">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="24">
+        <v>65</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="24">
         <v>4</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="24">
+        <v>58</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="15">
+        <v>23</v>
+      </c>
+      <c r="F19" s="24">
         <v>4</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="15">
-        <v>23</v>
-      </c>
-      <c r="E20" s="24">
+        <v>72</v>
+      </c>
+      <c r="D20" s="48">
+        <v>14</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="24">
         <v>4</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>278</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="24">
+        <v>278</v>
+      </c>
+      <c r="D21" s="48">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="24">
         <v>4</v>
-      </c>
-      <c r="F21" s="15">
-        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="24">
+        <v>268</v>
+      </c>
+      <c r="D22" s="48">
+        <v>5</v>
+      </c>
+      <c r="E22" s="15">
+        <v>27</v>
+      </c>
+      <c r="F22" s="24">
         <v>4</v>
       </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D23" s="15">
-        <v>27</v>
-      </c>
-      <c r="E23" s="24">
-        <v>4</v>
-      </c>
-      <c r="F23" s="15">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="16">
+        <v>29</v>
+      </c>
+      <c r="F23" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="16">
-        <v>29</v>
-      </c>
-      <c r="E24" s="25">
+        <v>91</v>
+      </c>
+      <c r="D24" s="50">
+        <v>18</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="25">
         <v>5</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="25">
+        <v>83</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="25">
         <v>5</v>
-      </c>
-      <c r="F25" s="33">
-        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="25">
+        <v>73</v>
+      </c>
+      <c r="D26" s="49">
+        <v>19</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="25">
         <v>5</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="25">
+        <v>279</v>
+      </c>
+      <c r="D27" s="49">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="25">
         <v>5</v>
-      </c>
-      <c r="F27" s="16">
-        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="25">
+        <v>269</v>
+      </c>
+      <c r="D28" s="49">
+        <v>21</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="25">
         <v>5</v>
       </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="25">
-        <v>5</v>
-      </c>
-      <c r="F29" s="16">
-        <v>21</v>
-      </c>
-      <c r="J29" s="31"/>
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="51">
+        <v>12</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="26">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="26">
+        <v>85</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="26">
         <v>6</v>
-      </c>
-      <c r="F30" s="17">
-        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="26">
+        <v>78</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="17">
+        <v>35</v>
+      </c>
+      <c r="F31" s="26">
         <v>6</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="17">
-        <v>35</v>
-      </c>
-      <c r="E32" s="26">
+        <v>74</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="17">
+        <v>40</v>
+      </c>
+      <c r="F32" s="26">
         <v>6</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="17">
-        <v>40</v>
-      </c>
-      <c r="E33" s="26">
+        <v>80</v>
+      </c>
+      <c r="D33" s="51">
+        <v>23</v>
+      </c>
+      <c r="E33" s="17">
+        <v>37</v>
+      </c>
+      <c r="F33" s="26">
         <v>6</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="17">
-        <v>37</v>
-      </c>
-      <c r="E34" s="26">
-        <v>6</v>
-      </c>
-      <c r="F34" s="17">
-        <v>23</v>
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="52">
+        <v>2</v>
+      </c>
+      <c r="E34" s="18">
+        <v>46</v>
+      </c>
+      <c r="F34" s="27">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="18">
-        <v>46</v>
-      </c>
-      <c r="E35" s="27">
+        <v>76</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="27">
         <v>7</v>
-      </c>
-      <c r="F35" s="18">
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="52">
         <v>30</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="27">
+      <c r="E36" s="18">
+        <v>41</v>
+      </c>
+      <c r="F36" s="27">
         <v>7</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="18">
-        <v>41</v>
-      </c>
-      <c r="E37" s="27">
+        <v>89</v>
+      </c>
+      <c r="D37" s="52">
+        <v>0</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="27">
         <v>7</v>
-      </c>
-      <c r="F37" s="18">
-        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="52">
         <v>32</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="27">
+      <c r="E38" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="27">
         <v>7</v>
       </c>
-      <c r="F38" s="18">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>37</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="27">
-        <v>7</v>
-      </c>
-      <c r="F39" s="18">
-        <v>32</v>
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="53">
+        <v>5</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="28">
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="53">
         <v>34</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="28">
+      <c r="E40" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="28">
         <v>8</v>
-      </c>
-      <c r="F40" s="19">
-        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="28">
+        <v>82</v>
+      </c>
+      <c r="D41" s="53">
+        <v>31</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="28">
         <v>8</v>
-      </c>
-      <c r="F41" s="19">
-        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="28">
+      <c r="D42" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="19">
+        <v>46</v>
+      </c>
+      <c r="F42" s="28">
         <v>8</v>
-      </c>
-      <c r="F42" s="19">
-        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="19">
-        <v>46</v>
-      </c>
-      <c r="E43" s="28">
+        <v>280</v>
+      </c>
+      <c r="D43" s="53">
+        <v>0</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="28">
         <v>8</v>
       </c>
-      <c r="F43" s="19" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>42</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="28">
-        <v>8</v>
-      </c>
-      <c r="F44" s="19">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="54">
         <v>0</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="29">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="29">
+        <v>296</v>
+      </c>
+      <c r="D45" s="54">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="29">
         <v>9</v>
-      </c>
-      <c r="F45" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="29">
+        <v>295</v>
+      </c>
+      <c r="D46" s="54">
+        <v>0</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="29">
         <v>9</v>
-      </c>
-      <c r="F46" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="29">
+        <v>86</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="20">
+        <v>51</v>
+      </c>
+      <c r="F47" s="29">
         <v>9</v>
-      </c>
-      <c r="F47" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="20">
-        <v>51</v>
-      </c>
-      <c r="E48" s="29">
+        <v>283</v>
+      </c>
+      <c r="D48" s="54">
+        <v>0</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="29">
         <v>9</v>
       </c>
-      <c r="F48" s="20" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>47</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="29">
-        <v>9</v>
-      </c>
-      <c r="F49" s="20">
+      <c r="A49" s="10">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D49" s="36">
         <v>0</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="30">
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="30">
+        <v>294</v>
+      </c>
+      <c r="D50" s="36">
+        <v>0</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="30">
         <v>10</v>
-      </c>
-      <c r="F50" s="34">
-        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="30">
+        <v>293</v>
+      </c>
+      <c r="D51" s="36">
+        <v>0</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="30">
         <v>10</v>
-      </c>
-      <c r="F51" s="34">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="30">
+        <v>87</v>
+      </c>
+      <c r="D52" s="36">
+        <v>46</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="30">
         <v>10</v>
-      </c>
-      <c r="F52" s="34">
-        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="30">
+        <v>285</v>
+      </c>
+      <c r="D53" s="36">
+        <v>0</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="30">
         <v>10</v>
       </c>
-      <c r="F53" s="34">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>52</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="30">
-        <v>10</v>
-      </c>
-      <c r="F54" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="56">
         <v>53</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="E55" s="30">
+      <c r="B54" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="E54" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="59"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="56">
+        <v>54</v>
+      </c>
+      <c r="B55" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="E55" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="59"/>
+    </row>
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>99</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="F56" s="30">
         <v>11</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2700,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" customWidth="1"/>
@@ -2558,22 +2711,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2581,10 +2734,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D3" s="39">
         <v>54</v>
@@ -2599,10 +2752,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D4" s="39">
         <v>54</v>
@@ -2617,10 +2770,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="39">
         <v>54</v>
@@ -2629,7 +2782,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2637,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D6" s="39">
         <v>54</v>
@@ -2655,10 +2808,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D7" s="39">
         <v>54</v>
@@ -2673,10 +2826,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D8" s="39">
         <v>54</v>
@@ -2691,16 +2844,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D9" s="39">
         <v>54</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F9" s="40"/>
     </row>
@@ -2709,19 +2862,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D10" s="39">
         <v>54</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,16 +2882,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D11" s="39">
         <v>54</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F11" s="40"/>
     </row>
@@ -2747,19 +2900,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D12" s="39">
         <v>54</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2767,16 +2920,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D13" s="39">
         <v>54</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F13" s="40"/>
     </row>
@@ -2785,16 +2938,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D14" s="39">
         <v>54</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F14" s="40"/>
     </row>
@@ -2803,10 +2956,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D15" s="39">
         <v>54</v>
@@ -2821,10 +2974,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D16" s="39">
         <v>54</v>
@@ -2839,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D17" s="39">
         <v>54</v>
@@ -2857,10 +3010,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D18" s="39">
         <v>54</v>
@@ -2875,16 +3028,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D19" s="39">
         <v>54</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F19" s="40"/>
     </row>
@@ -2893,16 +3046,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D20" s="39">
         <v>54</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F20" s="40"/>
     </row>
@@ -2911,16 +3064,16 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D21" s="39">
         <v>54</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -2929,10 +3082,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D22" s="39">
         <v>54</v>
@@ -2947,19 +3100,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="39">
+        <v>54</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="40" t="s">
         <v>186</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="39">
-        <v>54</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2967,16 +3120,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D24" s="39">
         <v>54</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F24" s="40"/>
     </row>
@@ -2985,16 +3138,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D25" s="39">
         <v>54</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F25" s="40"/>
     </row>
@@ -3003,10 +3156,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D26" s="39">
         <v>54</v>
@@ -3021,16 +3174,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D27" s="39">
         <v>54</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F27" s="40"/>
     </row>
@@ -3039,16 +3192,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D28" s="39">
         <v>54</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -3057,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D29" s="39">
         <v>54</v>
@@ -3075,10 +3228,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D30" s="39">
         <v>54</v>
@@ -3093,16 +3246,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D31" s="39">
         <v>54</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F31" s="40"/>
     </row>
@@ -3111,10 +3264,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D32" s="39">
         <v>54</v>
@@ -3123,7 +3276,7 @@
         <v>37</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3131,16 +3284,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D33" s="39">
         <v>54</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F33" s="40"/>
     </row>
@@ -3149,10 +3302,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D34" s="39">
         <v>54</v>
@@ -3167,10 +3320,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D35" s="39">
         <v>54</v>
@@ -3185,16 +3338,16 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D36" s="39">
         <v>54</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F36" s="40"/>
     </row>
@@ -3203,16 +3356,16 @@
         <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D37" s="39">
         <v>54</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F37" s="40"/>
     </row>
@@ -3221,16 +3374,16 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D38" s="39">
         <v>54</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F38" s="40"/>
     </row>
@@ -3239,10 +3392,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D39" s="39">
         <v>54</v>
@@ -3257,16 +3410,16 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D40" s="39">
         <v>54</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F40" s="40"/>
     </row>
@@ -3275,10 +3428,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D41" s="39">
         <v>54</v>
@@ -3293,10 +3446,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D42" s="39">
         <v>54</v>
@@ -3311,10 +3464,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D43" s="39">
         <v>54</v>
@@ -3329,10 +3482,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D44" s="39">
         <v>54</v>
@@ -3347,16 +3500,16 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D45" s="39">
         <v>54</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F45" s="40"/>
     </row>
@@ -3365,16 +3518,16 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D46" s="39">
         <v>54</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F46" s="40"/>
     </row>
@@ -3383,10 +3536,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D47" s="39">
         <v>54</v>
@@ -3401,16 +3554,16 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D48" s="39">
         <v>54</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F48" s="40"/>
     </row>
@@ -3419,16 +3572,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D49" s="39">
         <v>54</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F49" s="40"/>
     </row>
@@ -3437,10 +3590,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D50" s="39">
         <v>54</v>
@@ -3455,10 +3608,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D51" s="39">
         <v>54</v>
@@ -3473,10 +3626,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D52" s="39">
         <v>54</v>
@@ -3491,10 +3644,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D53" s="39">
         <v>54</v>
@@ -3503,7 +3656,7 @@
         <v>31</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3511,16 +3664,16 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D54" s="39">
         <v>54</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F54" s="40"/>
     </row>
@@ -3533,11 +3686,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218295B3-95C6-4056-8916-38091AF1344F}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
@@ -3546,10 +3699,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3557,7 +3710,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3565,7 +3718,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3573,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3581,7 +3734,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3589,7 +3742,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3597,7 +3750,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3605,7 +3758,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3613,7 +3766,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3621,7 +3774,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3629,7 +3782,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3637,7 +3790,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3645,7 +3798,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3653,7 +3806,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3661,7 +3814,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3669,7 +3822,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3677,7 +3830,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3685,7 +3838,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3693,7 +3846,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3701,7 +3854,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3709,7 +3862,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3717,7 +3870,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3725,7 +3878,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3733,39 +3886,39 @@
         <v>37</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC3A4F-524B-4F48-A4FF-787F53F69D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11050D84-6062-4F44-BFE2-A4B734793258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="1935" windowWidth="20730" windowHeight="11760" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -1555,7 +1555,7 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E43D4B-27A4-442D-BC6C-A9331C1AB1B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4A18FB-F369-4010-8714-9F30D73C20A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,7 +3533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218295B3-95C6-4056-8916-38091AF1344F}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11050D84-6062-4F44-BFE2-A4B734793258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCBB67A-45A2-413B-B27B-E1C54E34A5C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
@@ -865,75 +865,74 @@
     <t>CIT5002</t>
   </si>
   <si>
-    <t>3, 10, 13 , 17, 20, 26, 27, 28, 29,
- 36, 37, 38, 39, 40, 42, 43, 44, 
+    <t>CFG-1</t>
+  </si>
+  <si>
+    <t>CFG-2</t>
+  </si>
+  <si>
+    <t>CFG-3</t>
+  </si>
+  <si>
+    <t>CFG-4</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 1</t>
+  </si>
+  <si>
+    <t>CIT3310</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 2</t>
+  </si>
+  <si>
+    <t>CIT3311</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 4</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 3</t>
+  </si>
+  <si>
+    <t>CIT3312</t>
+  </si>
+  <si>
+    <t>CIT3313</t>
+  </si>
+  <si>
+    <t>CIT3410</t>
+  </si>
+  <si>
+    <t>CIT3411</t>
+  </si>
+  <si>
+    <t>CIT3412</t>
+  </si>
+  <si>
+    <t>CIT3413</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 4</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 3</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 2</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 1</t>
+  </si>
+  <si>
+    <t>53, 26, 27, 28, 29, 33, 36, 37, 38, 39 ,40 , 41, 42</t>
+  </si>
+  <si>
+    <t>3,10, 13, 15, 16, 17, 18 ,19 ,20, 21</t>
+  </si>
+  <si>
+    <t>43, 44, 
 45, 47, 48, 49, 50, 51, 52,53,54</t>
-  </si>
-  <si>
-    <t>CFG-1</t>
-  </si>
-  <si>
-    <t>CFG-2</t>
-  </si>
-  <si>
-    <t>CFG-3</t>
-  </si>
-  <si>
-    <t>CFG-4</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL INF 1</t>
-  </si>
-  <si>
-    <t>CIT3310</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL INF 2</t>
-  </si>
-  <si>
-    <t>CIT3311</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL INF 4</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL INF 3</t>
-  </si>
-  <si>
-    <t>CIT3312</t>
-  </si>
-  <si>
-    <t>CIT3313</t>
-  </si>
-  <si>
-    <t>CIT3410</t>
-  </si>
-  <si>
-    <t>CIT3411</t>
-  </si>
-  <si>
-    <t>CIT3412</t>
-  </si>
-  <si>
-    <t>CIT3413</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL TEL 4</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL TEL 3</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL TEL 2</t>
-  </si>
-  <si>
-    <t>ELECTIVO PROFESIONAL TEL 1</t>
-  </si>
-  <si>
-    <t>53, 26, 27, 28, 29, 33, 36, 37, 38, 39 ,40 , 41, 42</t>
-  </si>
-  <si>
-    <t>3,10, 13, 15, 16, 17, 18 ,19 ,20, 21</t>
   </si>
 </sst>
 </file>
@@ -1554,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,10 +1773,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" s="46">
         <v>0</v>
@@ -1974,10 +1973,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D21" s="48">
         <v>0</v>
@@ -2094,10 +2093,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D27" s="49">
         <v>0</v>
@@ -2415,10 +2414,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D43" s="53">
         <v>0</v>
@@ -2435,10 +2434,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D44" s="54">
         <v>0</v>
@@ -2455,10 +2454,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D45" s="54">
         <v>0</v>
@@ -2475,10 +2474,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D46" s="54">
         <v>0</v>
@@ -2515,10 +2514,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D48" s="54">
         <v>0</v>
@@ -2535,10 +2534,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D49" s="36">
         <v>0</v>
@@ -2555,10 +2554,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D50" s="36">
         <v>0</v>
@@ -2575,10 +2574,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>292</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>293</v>
       </c>
       <c r="D51" s="36">
         <v>0</v>
@@ -2615,10 +2614,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D53" s="36">
         <v>0</v>
@@ -2641,7 +2640,7 @@
         <v>271</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E54" s="58" t="s">
         <v>105</v>
@@ -2659,14 +2658,14 @@
         <v>274</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E55" s="58" t="s">
         <v>105</v>
       </c>
       <c r="F55" s="59"/>
     </row>
-    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>99</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>104</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="E56" s="34" t="s">
         <v>264</v>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCBB67A-45A2-413B-B27B-E1C54E34A5C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E40726-93CA-46F7-B2A3-6267FF02A448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -1553,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
@@ -3685,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218295B3-95C6-4056-8916-38091AF1344F}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3922,5 +3922,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4A18FB-F369-4010-8714-9F30D73C20A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E40726-93CA-46F7-B2A3-6267FF02A448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="299">
   <si>
     <t>CBM1000</t>
   </si>
@@ -151,9 +151,6 @@
     <t>CIT2201</t>
   </si>
   <si>
-    <t>Electivo Profesional</t>
-  </si>
-  <si>
     <t>CIT3200</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>39, 41</t>
   </si>
   <si>
-    <t>CFG</t>
-  </si>
-  <si>
     <t>MECÁNICA</t>
   </si>
   <si>
@@ -427,11 +421,6 @@
     <t>CIT2010</t>
   </si>
   <si>
-    <t xml:space="preserve">3, 10, 13 , 17, 20, 26, 27, 28, 29,
- 36, 37, 38, 39, 40, 42, 43, 44, 
-45, 47, 48, 49, 50, 51, 52 </t>
-  </si>
-  <si>
     <t>31, 34</t>
   </si>
   <si>
@@ -858,13 +847,92 @@
     <t>INGLÉS GENERAL II</t>
   </si>
   <si>
-    <t>CIT33XX</t>
-  </si>
-  <si>
-    <t>CIT34XX</t>
-  </si>
-  <si>
     <t>INTERFACE HUMANO MÁQUINA</t>
+  </si>
+  <si>
+    <t>PRÁCTICA PROFESIONAL 1</t>
+  </si>
+  <si>
+    <t>CIT5001</t>
+  </si>
+  <si>
+    <t>38,21</t>
+  </si>
+  <si>
+    <t>PRÁCTICA PROFESIONAL 2</t>
+  </si>
+  <si>
+    <t>CIT5002</t>
+  </si>
+  <si>
+    <t>CFG-1</t>
+  </si>
+  <si>
+    <t>CFG-2</t>
+  </si>
+  <si>
+    <t>CFG-3</t>
+  </si>
+  <si>
+    <t>CFG-4</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 1</t>
+  </si>
+  <si>
+    <t>CIT3310</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 2</t>
+  </si>
+  <si>
+    <t>CIT3311</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 4</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 3</t>
+  </si>
+  <si>
+    <t>CIT3312</t>
+  </si>
+  <si>
+    <t>CIT3313</t>
+  </si>
+  <si>
+    <t>CIT3410</t>
+  </si>
+  <si>
+    <t>CIT3411</t>
+  </si>
+  <si>
+    <t>CIT3412</t>
+  </si>
+  <si>
+    <t>CIT3413</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 4</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 3</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 2</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 1</t>
+  </si>
+  <si>
+    <t>53, 26, 27, 28, 29, 33, 36, 37, 38, 39 ,40 , 41, 42</t>
+  </si>
+  <si>
+    <t>3,10, 13, 15, 16, 17, 18 ,19 ,20, 21</t>
+  </si>
+  <si>
+    <t>43, 44, 
+45, 47, 48, 49, 50, 51, 52,53,54</t>
   </si>
 </sst>
 </file>
@@ -904,7 +972,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,6 +1062,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1058,7 +1132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1109,9 +1183,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1139,7 +1255,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1435,1102 +1551,1138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
-  <dimension ref="A2:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="4" max="4" width="27" style="55" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>110</v>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="45">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="45">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
+      <c r="E3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
+        <v>66</v>
+      </c>
+      <c r="D4" s="45">
         <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
+        <v>69</v>
+      </c>
+      <c r="D5" s="45">
         <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>9</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="12">
-        <v>9</v>
-      </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
+        <v>88</v>
+      </c>
+      <c r="D6" s="45">
         <v>0</v>
       </c>
+      <c r="E6" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="12">
-        <v>38</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="46">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="22">
+        <v>62</v>
+      </c>
+      <c r="D8" s="46">
         <v>2</v>
       </c>
-      <c r="F8" s="13">
-        <v>1</v>
+      <c r="E8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="22">
+        <v>56</v>
+      </c>
+      <c r="D9" s="46">
         <v>2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="E9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="22">
-        <v>2</v>
-      </c>
-      <c r="F10" s="13">
+        <v>70</v>
+      </c>
+      <c r="D10" s="46">
+        <v>4</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="22">
-        <v>2</v>
-      </c>
-      <c r="F11" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="22">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="14">
+        <v>18</v>
+      </c>
+      <c r="F12" s="23">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="14">
-        <v>18</v>
-      </c>
-      <c r="E13" s="23">
+        <v>64</v>
+      </c>
+      <c r="D13" s="47">
+        <v>7</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="23">
         <v>3</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="23">
+        <v>57</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="23">
         <v>3</v>
-      </c>
-      <c r="F14" s="14">
-        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="23">
+        <v>71</v>
+      </c>
+      <c r="D15" s="47">
+        <v>9</v>
+      </c>
+      <c r="E15" s="14">
+        <v>19</v>
+      </c>
+      <c r="F15" s="23">
         <v>3</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="47">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="14">
-        <v>19</v>
-      </c>
-      <c r="E16" s="23">
-        <v>3</v>
-      </c>
-      <c r="F16" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="23">
-        <v>3</v>
-      </c>
-      <c r="F17" s="14">
-        <v>9</v>
+      <c r="F17" s="24">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="24">
+        <v>65</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="24">
         <v>4</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="24">
+        <v>58</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="15">
+        <v>23</v>
+      </c>
+      <c r="F19" s="24">
         <v>4</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="15">
-        <v>23</v>
-      </c>
-      <c r="E20" s="24">
+        <v>72</v>
+      </c>
+      <c r="D20" s="48">
+        <v>14</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="24">
         <v>4</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="24">
+        <v>277</v>
+      </c>
+      <c r="D21" s="48">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="24">
         <v>4</v>
-      </c>
-      <c r="F21" s="15">
-        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="24">
+        <v>268</v>
+      </c>
+      <c r="D22" s="48">
+        <v>5</v>
+      </c>
+      <c r="E22" s="15">
+        <v>27</v>
+      </c>
+      <c r="F22" s="24">
         <v>4</v>
       </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D23" s="15">
-        <v>27</v>
-      </c>
-      <c r="E23" s="24">
-        <v>4</v>
-      </c>
-      <c r="F23" s="15">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="16">
+        <v>29</v>
+      </c>
+      <c r="F23" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="16">
-        <v>29</v>
-      </c>
-      <c r="E24" s="25">
+        <v>91</v>
+      </c>
+      <c r="D24" s="50">
+        <v>18</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="25">
         <v>5</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="25">
+        <v>83</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="25">
         <v>5</v>
-      </c>
-      <c r="F25" s="33">
-        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="25">
+        <v>73</v>
+      </c>
+      <c r="D26" s="49">
+        <v>19</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="25">
         <v>5</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="25">
+        <v>278</v>
+      </c>
+      <c r="D27" s="49">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="25">
         <v>5</v>
-      </c>
-      <c r="F27" s="16">
-        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="25">
+        <v>269</v>
+      </c>
+      <c r="D28" s="49">
+        <v>21</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="25">
         <v>5</v>
       </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="25">
-        <v>5</v>
-      </c>
-      <c r="F29" s="16">
-        <v>21</v>
-      </c>
-      <c r="J29" s="31"/>
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="51">
+        <v>12</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="26">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="26">
+        <v>85</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="26">
         <v>6</v>
-      </c>
-      <c r="F30" s="17">
-        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="26">
+        <v>78</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="17">
+        <v>35</v>
+      </c>
+      <c r="F31" s="26">
         <v>6</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="17">
-        <v>35</v>
-      </c>
-      <c r="E32" s="26">
+        <v>74</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="17">
+        <v>40</v>
+      </c>
+      <c r="F32" s="26">
         <v>6</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="17">
-        <v>40</v>
-      </c>
-      <c r="E33" s="26">
+        <v>80</v>
+      </c>
+      <c r="D33" s="51">
+        <v>23</v>
+      </c>
+      <c r="E33" s="17">
+        <v>37</v>
+      </c>
+      <c r="F33" s="26">
         <v>6</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="17">
-        <v>37</v>
-      </c>
-      <c r="E34" s="26">
-        <v>6</v>
-      </c>
-      <c r="F34" s="17">
-        <v>23</v>
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="52">
+        <v>2</v>
+      </c>
+      <c r="E34" s="18">
+        <v>46</v>
+      </c>
+      <c r="F34" s="27">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="18">
-        <v>46</v>
-      </c>
-      <c r="E35" s="27">
+        <v>76</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="27">
         <v>7</v>
-      </c>
-      <c r="F35" s="18">
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="52">
         <v>30</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="27">
+      <c r="E36" s="18">
+        <v>41</v>
+      </c>
+      <c r="F36" s="27">
         <v>7</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="18">
-        <v>41</v>
-      </c>
-      <c r="E37" s="27">
+        <v>89</v>
+      </c>
+      <c r="D37" s="52">
+        <v>0</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="27">
         <v>7</v>
-      </c>
-      <c r="F37" s="18">
-        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="52">
         <v>32</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="27">
+      <c r="E38" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="27">
         <v>7</v>
       </c>
-      <c r="F38" s="18">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>37</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="27">
-        <v>7</v>
-      </c>
-      <c r="F39" s="18">
-        <v>32</v>
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="53">
+        <v>5</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="28">
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="53">
         <v>34</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="28">
+      <c r="E40" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="28">
         <v>8</v>
-      </c>
-      <c r="F40" s="19">
-        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="28">
+        <v>82</v>
+      </c>
+      <c r="D41" s="53">
+        <v>31</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="28">
         <v>8</v>
-      </c>
-      <c r="F41" s="19">
-        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="28">
+      <c r="D42" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="19">
+        <v>46</v>
+      </c>
+      <c r="F42" s="28">
         <v>8</v>
-      </c>
-      <c r="F42" s="19">
-        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="19">
-        <v>46</v>
-      </c>
-      <c r="E43" s="28">
+        <v>279</v>
+      </c>
+      <c r="D43" s="53">
+        <v>0</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="28">
         <v>8</v>
       </c>
-      <c r="F43" s="19" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>42</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="28">
-        <v>8</v>
-      </c>
-      <c r="F44" s="19">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D44" s="54">
         <v>0</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="29">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="29">
+        <v>295</v>
+      </c>
+      <c r="D45" s="54">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="29">
         <v>9</v>
-      </c>
-      <c r="F45" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="29">
+        <v>294</v>
+      </c>
+      <c r="D46" s="54">
+        <v>0</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="29">
         <v>9</v>
-      </c>
-      <c r="F46" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="29">
+        <v>86</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="20">
+        <v>51</v>
+      </c>
+      <c r="F47" s="29">
         <v>9</v>
-      </c>
-      <c r="F47" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="20">
-        <v>51</v>
-      </c>
-      <c r="E48" s="29">
+        <v>282</v>
+      </c>
+      <c r="D48" s="54">
+        <v>0</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="29">
         <v>9</v>
       </c>
-      <c r="F48" s="20" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>47</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="29">
-        <v>9</v>
-      </c>
-      <c r="F49" s="20">
+      <c r="A49" s="10">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49" s="36">
         <v>0</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="30">
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="30">
+        <v>293</v>
+      </c>
+      <c r="D50" s="36">
+        <v>0</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="30">
         <v>10</v>
-      </c>
-      <c r="F50" s="34">
-        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="30">
+        <v>292</v>
+      </c>
+      <c r="D51" s="36">
+        <v>0</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="30">
         <v>10</v>
-      </c>
-      <c r="F51" s="34">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="30">
+        <v>87</v>
+      </c>
+      <c r="D52" s="36">
+        <v>46</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="30">
         <v>10</v>
-      </c>
-      <c r="F52" s="34">
-        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="30">
+        <v>284</v>
+      </c>
+      <c r="D53" s="36">
+        <v>0</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="30">
         <v>10</v>
       </c>
-      <c r="F53" s="34">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>52</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="30">
-        <v>10</v>
-      </c>
-      <c r="F54" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="56">
         <v>53</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="E55" s="30">
+      <c r="B54" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="E54" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="59"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="56">
+        <v>54</v>
+      </c>
+      <c r="B55" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="E55" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="59"/>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>99</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="F56" s="30">
         <v>11</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2699,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" customWidth="1"/>
@@ -2558,22 +2710,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2581,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D3" s="39">
         <v>54</v>
@@ -2599,10 +2751,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D4" s="39">
         <v>54</v>
@@ -2617,10 +2769,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="39">
         <v>54</v>
@@ -2629,7 +2781,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2637,10 +2789,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D6" s="39">
         <v>54</v>
@@ -2655,10 +2807,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D7" s="39">
         <v>54</v>
@@ -2673,10 +2825,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D8" s="39">
         <v>54</v>
@@ -2691,16 +2843,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D9" s="39">
         <v>54</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F9" s="40"/>
     </row>
@@ -2709,19 +2861,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D10" s="39">
         <v>54</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,16 +2881,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D11" s="39">
         <v>54</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F11" s="40"/>
     </row>
@@ -2747,19 +2899,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D12" s="39">
         <v>54</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2767,16 +2919,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D13" s="39">
         <v>54</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F13" s="40"/>
     </row>
@@ -2785,16 +2937,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D14" s="39">
         <v>54</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F14" s="40"/>
     </row>
@@ -2803,10 +2955,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D15" s="39">
         <v>54</v>
@@ -2821,10 +2973,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D16" s="39">
         <v>54</v>
@@ -2839,10 +2991,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D17" s="39">
         <v>54</v>
@@ -2857,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D18" s="39">
         <v>54</v>
@@ -2875,16 +3027,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D19" s="39">
         <v>54</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F19" s="40"/>
     </row>
@@ -2893,16 +3045,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D20" s="39">
         <v>54</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F20" s="40"/>
     </row>
@@ -2911,16 +3063,16 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D21" s="39">
         <v>54</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -2929,10 +3081,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D22" s="39">
         <v>54</v>
@@ -2947,19 +3099,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="39">
+        <v>54</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="40" t="s">
         <v>186</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="39">
-        <v>54</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2967,16 +3119,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D24" s="39">
         <v>54</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F24" s="40"/>
     </row>
@@ -2985,16 +3137,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D25" s="39">
         <v>54</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F25" s="40"/>
     </row>
@@ -3003,10 +3155,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D26" s="39">
         <v>54</v>
@@ -3021,16 +3173,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D27" s="39">
         <v>54</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F27" s="40"/>
     </row>
@@ -3039,16 +3191,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D28" s="39">
         <v>54</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -3057,10 +3209,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D29" s="39">
         <v>54</v>
@@ -3075,10 +3227,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D30" s="39">
         <v>54</v>
@@ -3093,16 +3245,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D31" s="39">
         <v>54</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F31" s="40"/>
     </row>
@@ -3111,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D32" s="39">
         <v>54</v>
@@ -3123,7 +3275,7 @@
         <v>37</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3131,16 +3283,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D33" s="39">
         <v>54</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F33" s="40"/>
     </row>
@@ -3149,10 +3301,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D34" s="39">
         <v>54</v>
@@ -3167,10 +3319,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D35" s="39">
         <v>54</v>
@@ -3185,16 +3337,16 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D36" s="39">
         <v>54</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F36" s="40"/>
     </row>
@@ -3203,16 +3355,16 @@
         <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D37" s="39">
         <v>54</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F37" s="40"/>
     </row>
@@ -3221,16 +3373,16 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D38" s="39">
         <v>54</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F38" s="40"/>
     </row>
@@ -3239,10 +3391,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D39" s="39">
         <v>54</v>
@@ -3257,16 +3409,16 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D40" s="39">
         <v>54</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F40" s="40"/>
     </row>
@@ -3275,10 +3427,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D41" s="39">
         <v>54</v>
@@ -3293,10 +3445,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D42" s="39">
         <v>54</v>
@@ -3311,10 +3463,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D43" s="39">
         <v>54</v>
@@ -3329,10 +3481,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D44" s="39">
         <v>54</v>
@@ -3347,16 +3499,16 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D45" s="39">
         <v>54</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F45" s="40"/>
     </row>
@@ -3365,16 +3517,16 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D46" s="39">
         <v>54</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F46" s="40"/>
     </row>
@@ -3383,10 +3535,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D47" s="39">
         <v>54</v>
@@ -3401,16 +3553,16 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D48" s="39">
         <v>54</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F48" s="40"/>
     </row>
@@ -3419,16 +3571,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D49" s="39">
         <v>54</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F49" s="40"/>
     </row>
@@ -3437,10 +3589,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D50" s="39">
         <v>54</v>
@@ -3455,10 +3607,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D51" s="39">
         <v>54</v>
@@ -3473,10 +3625,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D52" s="39">
         <v>54</v>
@@ -3491,10 +3643,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D53" s="39">
         <v>54</v>
@@ -3503,7 +3655,7 @@
         <v>31</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3511,16 +3663,16 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D54" s="39">
         <v>54</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F54" s="40"/>
     </row>
@@ -3533,11 +3685,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218295B3-95C6-4056-8916-38091AF1344F}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
@@ -3546,10 +3698,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3557,7 +3709,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3565,7 +3717,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3573,7 +3725,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3581,7 +3733,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3589,7 +3741,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3597,7 +3749,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3605,7 +3757,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3613,7 +3765,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3621,7 +3773,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3629,7 +3781,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3637,7 +3789,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3645,7 +3797,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3653,7 +3805,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3661,7 +3813,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3669,7 +3821,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3677,7 +3829,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3685,7 +3837,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3693,7 +3845,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3701,7 +3853,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3709,7 +3861,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3717,7 +3869,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3725,7 +3877,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3733,42 +3885,43 @@
         <v>37</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E40726-93CA-46F7-B2A3-6267FF02A448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79055EF3-2AA2-48CA-8CB9-F5B8B3EC593F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="303">
   <si>
     <t>CBM1000</t>
   </si>
@@ -933,6 +933,18 @@
   <si>
     <t>43, 44, 
 45, 47, 48, 49, 50, 51, 52,53,54</t>
+  </si>
+  <si>
+    <t>CFG3</t>
+  </si>
+  <si>
+    <t>CFG2</t>
+  </si>
+  <si>
+    <t>CFG1</t>
+  </si>
+  <si>
+    <t>CFG4</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1239,7 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1255,7 +1267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1553,11 +1565,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1773,7 +1785,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>276</v>
@@ -1973,7 +1985,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>277</v>
@@ -2093,7 +2105,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>278</v>
@@ -2414,7 +2426,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>279</v>
@@ -2699,7 +2711,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" customWidth="1"/>
@@ -3685,11 +3697,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218295B3-95C6-4056-8916-38091AF1344F}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>

--- a/RutaCritica/MallaCurricular2010.xlsx
+++ b/RutaCritica/MallaCurricular2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79055EF3-2AA2-48CA-8CB9-F5B8B3EC593F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1620AA-3D24-4DD1-ACAD-FC1EA98F5A9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2010" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="299">
   <si>
     <t>CBM1000</t>
   </si>
@@ -933,18 +933,6 @@
   <si>
     <t>43, 44, 
 45, 47, 48, 49, 50, 51, 52,53,54</t>
-  </si>
-  <si>
-    <t>CFG3</t>
-  </si>
-  <si>
-    <t>CFG2</t>
-  </si>
-  <si>
-    <t>CFG1</t>
-  </si>
-  <si>
-    <t>CFG4</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1227,7 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1267,7 +1255,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1566,10 +1554,10 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1785,7 +1773,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>276</v>
@@ -1985,7 +1973,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>277</v>
@@ -2105,7 +2093,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>278</v>
@@ -2426,7 +2414,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>279</v>
@@ -2711,7 +2699,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" customWidth="1"/>
@@ -3701,7 +3689,7 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
